--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,7 +49,16 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
-    <t>2020-12-19</t>
+    <t>2021-01-02</t>
+  </si>
+  <si>
+    <t>05 Apr -- 11 Apr 2020</t>
+  </si>
+  <si>
+    <t>12 Apr -- 18 Apr 2020</t>
+  </si>
+  <si>
+    <t>19 Apr -- 25 Apr 2020</t>
   </si>
   <si>
     <t>26 Apr -- 02 May 2020</t>
@@ -173,6 +182,12 @@
   </si>
   <si>
     <t>31 Jan -- 06 Feb 2021</t>
+  </si>
+  <si>
+    <t>07 Feb -- 13 Feb 2021</t>
+  </si>
+  <si>
+    <t>14 Feb -- 20 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -533,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,25 +597,25 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>1933.57</v>
+        <v>2087.86</v>
       </c>
       <c r="D2">
-        <v>1933.57</v>
+        <v>2087.86</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H2">
-        <v>63.77</v>
+        <v>68.45</v>
       </c>
       <c r="I2">
-        <v>1663.16</v>
+        <v>1787.14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -611,16 +626,16 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1753.71</v>
+        <v>2148.43</v>
       </c>
       <c r="D3">
-        <v>1753.71</v>
+        <v>2148.43</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -631,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>1426.86</v>
+        <v>2202.86</v>
       </c>
       <c r="D4">
-        <v>1426.86</v>
+        <v>2202.86</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -651,16 +666,16 @@
         <v>15</v>
       </c>
       <c r="C5">
-        <v>1220.57</v>
+        <v>1933.57</v>
       </c>
       <c r="D5">
-        <v>1220.57</v>
+        <v>1933.57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -671,16 +686,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>946.14</v>
+        <v>1753.71</v>
       </c>
       <c r="D6">
-        <v>946.14</v>
+        <v>1753.71</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -691,16 +706,16 @@
         <v>17</v>
       </c>
       <c r="C7">
-        <v>873.71</v>
+        <v>1426.86</v>
       </c>
       <c r="D7">
-        <v>873.71</v>
+        <v>1426.86</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,16 +726,16 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>744.29</v>
+        <v>1220.57</v>
       </c>
       <c r="D8">
-        <v>744.29</v>
+        <v>1220.57</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,16 +746,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>602.14</v>
+        <v>946.14</v>
       </c>
       <c r="D9">
-        <v>602.14</v>
+        <v>946.14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,16 +766,16 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>565.86</v>
+        <v>873.71</v>
       </c>
       <c r="D10">
-        <v>565.86</v>
+        <v>873.71</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -771,16 +786,16 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>524.14</v>
+        <v>744.29</v>
       </c>
       <c r="D11">
-        <v>524.14</v>
+        <v>744.29</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -791,16 +806,16 @@
         <v>22</v>
       </c>
       <c r="C12">
-        <v>748.86</v>
+        <v>602.14</v>
       </c>
       <c r="D12">
-        <v>748.86</v>
+        <v>602.14</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,16 +826,16 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>786.29</v>
+        <v>565.86</v>
       </c>
       <c r="D13">
-        <v>786.29</v>
+        <v>565.86</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -831,16 +846,16 @@
         <v>24</v>
       </c>
       <c r="C14">
-        <v>922</v>
+        <v>524.14</v>
       </c>
       <c r="D14">
-        <v>922</v>
+        <v>524.14</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -851,16 +866,16 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>1140.43</v>
+        <v>748.86</v>
       </c>
       <c r="D15">
-        <v>1140.43</v>
+        <v>748.86</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -871,16 +886,16 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>1038.43</v>
+        <v>786.29</v>
       </c>
       <c r="D16">
-        <v>1038.43</v>
+        <v>786.29</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -891,16 +906,16 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>1007.43</v>
+        <v>922</v>
       </c>
       <c r="D17">
-        <v>1007.43</v>
+        <v>922</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -911,16 +926,16 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>973.4299999999999</v>
+        <v>1140.43</v>
       </c>
       <c r="D18">
-        <v>973.4299999999999</v>
+        <v>1140.43</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -931,16 +946,16 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>894.5700000000001</v>
+        <v>1038.43</v>
       </c>
       <c r="D19">
-        <v>894.5700000000001</v>
+        <v>1038.43</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -951,16 +966,16 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>846.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="D20">
-        <v>846.4299999999999</v>
+        <v>1007.43</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -971,16 +986,16 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>733.14</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D21">
-        <v>733.14</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -991,16 +1006,16 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>797.86</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D22">
-        <v>797.86</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1011,16 +1026,16 @@
         <v>33</v>
       </c>
       <c r="C23">
-        <v>766.4299999999999</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D23">
-        <v>1056.1</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E23">
-        <v>289.67</v>
+        <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1031,16 +1046,16 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>702.14</v>
+        <v>733.14</v>
       </c>
       <c r="D24">
-        <v>846.99</v>
+        <v>733.14</v>
       </c>
       <c r="E24">
-        <v>144.84</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1051,16 +1066,16 @@
         <v>35</v>
       </c>
       <c r="C25">
-        <v>714.29</v>
+        <v>797.86</v>
       </c>
       <c r="D25">
-        <v>990.99</v>
+        <v>797.86</v>
       </c>
       <c r="E25">
-        <v>276.7</v>
+        <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1071,16 +1086,16 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>717.4299999999999</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D26">
-        <v>914.45</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="E26">
-        <v>197.02</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1091,16 +1106,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>821.5700000000001</v>
+        <v>702.14</v>
       </c>
       <c r="D27">
-        <v>843.25</v>
+        <v>702.14</v>
       </c>
       <c r="E27">
-        <v>21.68</v>
+        <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1111,16 +1126,16 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>819</v>
+        <v>714.29</v>
       </c>
       <c r="D28">
-        <v>744.64</v>
+        <v>714.29</v>
       </c>
       <c r="E28">
-        <v>74.36</v>
+        <v>0</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1131,16 +1146,16 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>994.86</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D29">
-        <v>836.62</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="E29">
-        <v>158.24</v>
+        <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1151,16 +1166,16 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>1087.29</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D30">
-        <v>777.92</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="E30">
-        <v>309.37</v>
+        <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1171,16 +1186,16 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>1466.29</v>
+        <v>819</v>
       </c>
       <c r="D31">
-        <v>762.49</v>
+        <v>819</v>
       </c>
       <c r="E31">
-        <v>703.79</v>
+        <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1191,19 +1206,19 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>1447.14</v>
+        <v>994.86</v>
       </c>
       <c r="D32">
-        <v>772.54</v>
+        <v>994.86</v>
       </c>
       <c r="E32">
-        <v>674.61</v>
+        <v>0</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1211,19 +1226,19 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>2150.29</v>
+        <v>1087.29</v>
       </c>
       <c r="D33">
-        <v>781.47</v>
+        <v>1087.29</v>
       </c>
       <c r="E33">
-        <v>1368.82</v>
+        <v>0</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1231,19 +1246,19 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>2383.14</v>
+        <v>1466.29</v>
       </c>
       <c r="D34">
-        <v>860.3099999999999</v>
+        <v>1466.29</v>
       </c>
       <c r="E34">
-        <v>1522.83</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1251,19 +1266,19 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>2607.86</v>
+        <v>1447.14</v>
       </c>
       <c r="D35">
-        <v>944.7</v>
+        <v>1221.37</v>
       </c>
       <c r="E35">
-        <v>1663.16</v>
+        <v>225.77</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1271,25 +1286,19 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>2250</v>
+        <v>2150.29</v>
       </c>
       <c r="D36">
-        <v>961.6</v>
+        <v>1202.88</v>
       </c>
       <c r="E36">
-        <v>1288.4</v>
+        <v>947.4</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36">
-        <v>1288.4</v>
-      </c>
-      <c r="K36">
-        <v>57.26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1297,67 +1306,79 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>2611</v>
+        <v>2383.14</v>
       </c>
       <c r="D37">
-        <v>982.09</v>
+        <v>1199.62</v>
       </c>
       <c r="E37">
-        <v>1628.91</v>
+        <v>1183.53</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37">
-        <v>1458.66</v>
-      </c>
-      <c r="K37">
-        <v>59.82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>48</v>
       </c>
+      <c r="C38">
+        <v>2607.86</v>
+      </c>
       <c r="D38">
-        <v>1086.34</v>
+        <v>1248.87</v>
+      </c>
+      <c r="E38">
+        <v>1358.98</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>49</v>
       </c>
+      <c r="C39">
+        <v>2250</v>
+      </c>
       <c r="D39">
-        <v>1056.05</v>
+        <v>1190.31</v>
+      </c>
+      <c r="E39">
+        <v>1059.69</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
       </c>
+      <c r="C40">
+        <v>2611</v>
+      </c>
       <c r="D40">
-        <v>1099.45</v>
+        <v>1126.91</v>
+      </c>
+      <c r="E40">
+        <v>1484.09</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1365,13 +1386,13 @@
         <v>51</v>
       </c>
       <c r="D41">
-        <v>1150.7</v>
+        <v>1158.58</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1379,10 +1400,80 @@
         <v>52</v>
       </c>
       <c r="D42">
-        <v>1312.14</v>
+        <v>819.95</v>
       </c>
       <c r="F42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" t="s">
         <v>53</v>
+      </c>
+      <c r="D43">
+        <v>1243.22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1380.6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45">
+        <v>1617.11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>851.66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>987.95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -49,16 +49,16 @@
     <t>Weekly MAPE</t>
   </si>
   <si>
+    <t>2020-12-19</t>
+  </si>
+  <si>
+    <t>2020-12-26</t>
+  </si>
+  <si>
     <t>2021-01-02</t>
   </si>
   <si>
-    <t>05 Apr -- 11 Apr 2020</t>
-  </si>
-  <si>
-    <t>12 Apr -- 18 Apr 2020</t>
-  </si>
-  <si>
-    <t>19 Apr -- 25 Apr 2020</t>
+    <t>2021-01-09</t>
   </si>
   <si>
     <t>26 Apr -- 02 May 2020</t>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>14 Feb -- 20 Feb 2021</t>
+  </si>
+  <si>
+    <t>21 Feb -- 27 Feb 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -594,28 +597,28 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>2087.86</v>
+        <v>1933.57</v>
       </c>
       <c r="D2">
-        <v>2087.86</v>
+        <v>1933.57</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="H2">
-        <v>68.45</v>
+        <v>63.77</v>
       </c>
       <c r="I2">
-        <v>1787.14</v>
+        <v>1663.16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -623,19 +626,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>2148.43</v>
+        <v>1753.71</v>
       </c>
       <c r="D3">
-        <v>2148.43</v>
+        <v>1753.71</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -643,19 +646,19 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>2202.86</v>
+        <v>1426.86</v>
       </c>
       <c r="D4">
-        <v>2202.86</v>
+        <v>1426.86</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -663,19 +666,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1933.57</v>
+        <v>1220.57</v>
       </c>
       <c r="D5">
-        <v>1933.57</v>
+        <v>1220.57</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -683,19 +686,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>1753.71</v>
+        <v>946.14</v>
       </c>
       <c r="D6">
-        <v>1753.71</v>
+        <v>946.14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -703,19 +706,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>1426.86</v>
+        <v>873.71</v>
       </c>
       <c r="D7">
-        <v>1426.86</v>
+        <v>873.71</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -723,19 +726,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8">
-        <v>1220.57</v>
+        <v>744.29</v>
       </c>
       <c r="D8">
-        <v>1220.57</v>
+        <v>744.29</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -743,19 +746,19 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>946.14</v>
+        <v>602.14</v>
       </c>
       <c r="D9">
-        <v>946.14</v>
+        <v>602.14</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -763,19 +766,19 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>873.71</v>
+        <v>565.86</v>
       </c>
       <c r="D10">
-        <v>873.71</v>
+        <v>565.86</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -783,19 +786,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>744.29</v>
+        <v>524.14</v>
       </c>
       <c r="D11">
-        <v>744.29</v>
+        <v>524.14</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -803,19 +806,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
-        <v>602.14</v>
+        <v>748.86</v>
       </c>
       <c r="D12">
-        <v>602.14</v>
+        <v>748.86</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -823,19 +826,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>565.86</v>
+        <v>786.29</v>
       </c>
       <c r="D13">
-        <v>565.86</v>
+        <v>786.29</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -843,19 +846,19 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>524.14</v>
+        <v>922</v>
       </c>
       <c r="D14">
-        <v>524.14</v>
+        <v>922</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -863,19 +866,19 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>748.86</v>
+        <v>1140.43</v>
       </c>
       <c r="D15">
-        <v>748.86</v>
+        <v>1140.43</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -883,19 +886,19 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>786.29</v>
+        <v>1038.43</v>
       </c>
       <c r="D16">
-        <v>786.29</v>
+        <v>1038.43</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -903,19 +906,19 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>922</v>
+        <v>1007.43</v>
       </c>
       <c r="D17">
-        <v>922</v>
+        <v>1007.43</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -923,19 +926,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C18">
-        <v>1140.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="D18">
-        <v>1140.43</v>
+        <v>973.4299999999999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -943,19 +946,19 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19">
-        <v>1038.43</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="D19">
-        <v>1038.43</v>
+        <v>894.5700000000001</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -963,19 +966,19 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>1007.43</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="D20">
-        <v>1007.43</v>
+        <v>846.4299999999999</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -983,19 +986,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>973.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="D21">
-        <v>973.4299999999999</v>
+        <v>733.14</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1003,19 +1006,19 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22">
-        <v>894.5700000000001</v>
+        <v>797.86</v>
       </c>
       <c r="D22">
-        <v>894.5700000000001</v>
+        <v>797.86</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1023,19 +1026,19 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>846.4299999999999</v>
+        <v>766.4299999999999</v>
       </c>
       <c r="D23">
-        <v>846.4299999999999</v>
+        <v>1056.1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>289.67</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1043,19 +1046,19 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24">
-        <v>733.14</v>
+        <v>702.14</v>
       </c>
       <c r="D24">
-        <v>733.14</v>
+        <v>846.99</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>144.84</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1063,19 +1066,19 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>797.86</v>
+        <v>714.29</v>
       </c>
       <c r="D25">
-        <v>797.86</v>
+        <v>990.99</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>276.7</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1083,19 +1086,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C26">
-        <v>766.4299999999999</v>
+        <v>717.4299999999999</v>
       </c>
       <c r="D26">
-        <v>766.4299999999999</v>
+        <v>914.45</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>197.02</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1103,19 +1106,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C27">
-        <v>702.14</v>
+        <v>821.5700000000001</v>
       </c>
       <c r="D27">
-        <v>702.14</v>
+        <v>843.25</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>21.68</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1123,19 +1126,19 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>714.29</v>
+        <v>819</v>
       </c>
       <c r="D28">
-        <v>714.29</v>
+        <v>744.64</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>74.36</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1143,19 +1146,19 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C29">
-        <v>717.4299999999999</v>
+        <v>994.86</v>
       </c>
       <c r="D29">
-        <v>717.4299999999999</v>
+        <v>836.62</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>158.24</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1163,19 +1166,19 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C30">
-        <v>821.5700000000001</v>
+        <v>1087.29</v>
       </c>
       <c r="D30">
-        <v>821.5700000000001</v>
+        <v>777.92</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>309.37</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1183,19 +1186,19 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C31">
-        <v>819</v>
+        <v>1466.29</v>
       </c>
       <c r="D31">
-        <v>819</v>
+        <v>762.49</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>703.79</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1203,277 +1206,615 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C32">
-        <v>994.86</v>
+        <v>1447.14</v>
       </c>
       <c r="D32">
-        <v>994.86</v>
+        <v>772.54</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>674.61</v>
       </c>
       <c r="F32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33">
+        <v>2150.29</v>
+      </c>
+      <c r="D33">
+        <v>781.47</v>
+      </c>
+      <c r="E33">
+        <v>1368.82</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34">
+        <v>2383.14</v>
+      </c>
+      <c r="D34">
+        <v>860.3099999999999</v>
+      </c>
+      <c r="E34">
+        <v>1522.83</v>
+      </c>
+      <c r="F34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2607.86</v>
+      </c>
+      <c r="D35">
+        <v>944.7</v>
+      </c>
+      <c r="E35">
+        <v>1663.16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36">
+        <v>2243.29</v>
+      </c>
+      <c r="D36">
+        <v>961.6</v>
+      </c>
+      <c r="E36">
+        <v>1281.69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36">
+        <v>1281.69</v>
+      </c>
+      <c r="K36">
+        <v>57.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37">
+        <v>2604.14</v>
+      </c>
+      <c r="D37">
+        <v>982.09</v>
+      </c>
+      <c r="E37">
+        <v>1622.06</v>
+      </c>
+      <c r="F37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37">
+        <v>1451.87</v>
+      </c>
+      <c r="K37">
+        <v>59.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>3174.14</v>
+      </c>
+      <c r="D38">
+        <v>1086.34</v>
+      </c>
+      <c r="E38">
+        <v>2087.81</v>
+      </c>
+      <c r="F38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38">
+        <v>1663.85</v>
+      </c>
+      <c r="K38">
+        <v>61.73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39">
+        <v>3333.57</v>
+      </c>
+      <c r="D39">
+        <v>1056.05</v>
+      </c>
+      <c r="E39">
+        <v>2277.52</v>
+      </c>
+      <c r="F39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39">
+        <v>1817.27</v>
+      </c>
+      <c r="K39">
+        <v>63.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>1099.45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>1150.7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>1312.14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43">
+        <v>2604.14</v>
+      </c>
+      <c r="D43">
+        <v>855.8099999999999</v>
+      </c>
+      <c r="E43">
+        <v>1748.34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43">
+        <v>0.97</v>
+      </c>
+      <c r="H43">
+        <v>63.5</v>
+      </c>
+      <c r="I43">
+        <v>1424.39</v>
+      </c>
+      <c r="J43">
+        <v>1803.48</v>
+      </c>
+      <c r="K43">
+        <v>64.13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44">
+        <v>3174.14</v>
+      </c>
+      <c r="D44">
+        <v>962.09</v>
+      </c>
+      <c r="E44">
+        <v>2212.05</v>
+      </c>
+      <c r="F44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44">
+        <v>1871.58</v>
+      </c>
+      <c r="K44">
+        <v>65.06</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>3333.57</v>
+      </c>
+      <c r="D45">
+        <v>1048.4</v>
+      </c>
+      <c r="E45">
+        <v>2285.18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45">
+        <v>1930.66</v>
+      </c>
+      <c r="K45">
+        <v>65.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>1203.18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47">
+        <v>1388.31</v>
+      </c>
+      <c r="F47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>1332.97</v>
+      </c>
+      <c r="F48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49">
+        <v>1275.45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>3174.14</v>
+      </c>
+      <c r="D50">
+        <v>1160</v>
+      </c>
+      <c r="E50">
+        <v>2014.14</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H50">
+        <v>68.45</v>
+      </c>
+      <c r="I50">
+        <v>1787.14</v>
+      </c>
+      <c r="J50">
+        <v>1941.1</v>
+      </c>
+      <c r="K50">
+        <v>65.29000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>3333.57</v>
+      </c>
+      <c r="D51">
+        <v>821.48</v>
+      </c>
+      <c r="E51">
+        <v>2512.09</v>
+      </c>
+      <c r="F51" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51">
+        <v>2004.54</v>
+      </c>
+      <c r="K51">
+        <v>66.41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>1244.2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>1381.27</v>
+      </c>
+      <c r="F53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>1616.94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>853.03</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>988.45</v>
+      </c>
+      <c r="F56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57">
+        <v>3333.57</v>
+      </c>
+      <c r="D57">
+        <v>982.41</v>
+      </c>
+      <c r="E57">
+        <v>2351.16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57">
+        <v>74.83</v>
+      </c>
+      <c r="I57">
+        <v>2375.29</v>
+      </c>
+      <c r="J57">
+        <v>2039.2</v>
+      </c>
+      <c r="K57">
+        <v>66.81999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58">
+        <v>1071.37</v>
+      </c>
+      <c r="F58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59">
+        <v>1058.26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>1202.37</v>
+      </c>
+      <c r="F60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>1278.63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D62">
+        <v>1372.63</v>
+      </c>
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33">
-        <v>1087.29</v>
-      </c>
-      <c r="D33">
-        <v>1087.29</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34">
-        <v>1466.29</v>
-      </c>
-      <c r="D34">
-        <v>1466.29</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>1447.14</v>
-      </c>
-      <c r="D35">
-        <v>1221.37</v>
-      </c>
-      <c r="E35">
-        <v>225.77</v>
-      </c>
-      <c r="F35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36">
-        <v>2150.29</v>
-      </c>
-      <c r="D36">
-        <v>1202.88</v>
-      </c>
-      <c r="E36">
-        <v>947.4</v>
-      </c>
-      <c r="F36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37">
-        <v>2383.14</v>
-      </c>
-      <c r="D37">
-        <v>1199.62</v>
-      </c>
-      <c r="E37">
-        <v>1183.53</v>
-      </c>
-      <c r="F37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38">
-        <v>2607.86</v>
-      </c>
-      <c r="D38">
-        <v>1248.87</v>
-      </c>
-      <c r="E38">
-        <v>1358.98</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39">
-        <v>2250</v>
-      </c>
-      <c r="D39">
-        <v>1190.31</v>
-      </c>
-      <c r="E39">
-        <v>1059.69</v>
-      </c>
-      <c r="F39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40">
-        <v>2611</v>
-      </c>
-      <c r="D40">
-        <v>1126.91</v>
-      </c>
-      <c r="E40">
-        <v>1484.09</v>
-      </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41">
-        <v>1158.58</v>
-      </c>
-      <c r="F41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42">
-        <v>819.95</v>
-      </c>
-      <c r="F42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43">
-        <v>1243.22</v>
-      </c>
-      <c r="F43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44">
-        <v>1380.6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45">
-        <v>1617.11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46">
-        <v>851.66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47">
-        <v>987.95</v>
-      </c>
-      <c r="F47" t="s">
-        <v>58</v>
+      <c r="D63">
+        <v>1444.39</v>
+      </c>
+      <c r="F63" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="60">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -551,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1817,6 +1817,125 @@
         <v>59</v>
       </c>
     </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64">
+        <v>3333.57</v>
+      </c>
+      <c r="D64">
+        <v>1048</v>
+      </c>
+      <c r="E64">
+        <v>2285.57</v>
+      </c>
+      <c r="F64" t="s">
+        <v>59</v>
+      </c>
+      <c r="G64">
+        <v>0.83</v>
+      </c>
+      <c r="H64">
+        <v>64.12</v>
+      </c>
+      <c r="I64">
+        <v>2035.15</v>
+      </c>
+      <c r="J64">
+        <v>2061.6</v>
+      </c>
+      <c r="K64">
+        <v>66.98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>1071.76</v>
+      </c>
+      <c r="F65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <v>1272.38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67">
+        <v>1370.74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>859.61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D69">
+        <v>1000.1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>1335.68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="62">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -191,6 +194,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,7 +603,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -609,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>0.92</v>
@@ -626,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -638,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -646,7 +652,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -658,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -666,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -678,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -686,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -698,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -706,7 +712,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -718,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -738,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,7 +752,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -758,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -766,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -778,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -798,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -806,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -818,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -826,7 +832,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -838,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -858,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -866,7 +872,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -878,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -886,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -898,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -918,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -926,7 +932,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -938,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -946,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -966,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -978,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -986,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -998,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1006,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1018,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1026,7 +1032,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1038,7 +1044,7 @@
         <v>289.67</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1046,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1058,7 +1064,7 @@
         <v>144.84</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1066,7 +1072,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1078,7 +1084,7 @@
         <v>276.7</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1086,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1098,7 +1104,7 @@
         <v>197.02</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1106,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1118,7 +1124,7 @@
         <v>21.68</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1126,7 +1132,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1138,7 +1144,7 @@
         <v>74.36</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1146,7 +1152,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1158,7 +1164,7 @@
         <v>158.24</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1166,7 +1172,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1178,7 +1184,7 @@
         <v>309.37</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1186,7 +1192,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1198,7 +1204,7 @@
         <v>703.79</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1206,7 +1212,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1218,7 +1224,7 @@
         <v>674.61</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1226,7 +1232,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1238,7 +1244,7 @@
         <v>1368.82</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1246,7 +1252,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1258,7 +1264,7 @@
         <v>1522.83</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1266,7 +1272,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1278,7 +1284,7 @@
         <v>1663.16</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1286,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
-        <v>2243.29</v>
+        <v>2241.86</v>
       </c>
       <c r="D36">
         <v>961.6</v>
       </c>
       <c r="E36">
-        <v>1281.69</v>
+        <v>1280.26</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J36">
-        <v>1281.69</v>
+        <v>1280.26</v>
       </c>
       <c r="K36">
-        <v>57.13</v>
+        <v>57.11</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1312,25 +1318,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D37">
         <v>982.09</v>
       </c>
       <c r="E37">
-        <v>1622.06</v>
+        <v>1622.34</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J37">
-        <v>1451.87</v>
+        <v>1451.3</v>
       </c>
       <c r="K37">
-        <v>59.71</v>
+        <v>59.7</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,25 +1344,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D38">
         <v>1086.34</v>
       </c>
       <c r="E38">
-        <v>2087.81</v>
+        <v>2086.52</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J38">
-        <v>1663.85</v>
+        <v>1663.04</v>
       </c>
       <c r="K38">
-        <v>61.73</v>
+        <v>61.72</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>3333.57</v>
@@ -1376,13 +1382,13 @@
         <v>2277.52</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J39">
-        <v>1817.27</v>
+        <v>1816.66</v>
       </c>
       <c r="K39">
-        <v>63.38</v>
+        <v>63.37</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,13 +1396,13 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D40">
         <v>1099.45</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1404,13 +1410,13 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>1150.7</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1418,13 +1424,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D42">
         <v>1312.14</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1432,19 +1438,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C43">
-        <v>2604.14</v>
+        <v>2604.43</v>
       </c>
       <c r="D43">
         <v>855.8099999999999</v>
       </c>
       <c r="E43">
-        <v>1748.34</v>
+        <v>1748.62</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>0.97</v>
@@ -1456,10 +1462,10 @@
         <v>1424.39</v>
       </c>
       <c r="J43">
-        <v>1803.48</v>
+        <v>1803.05</v>
       </c>
       <c r="K43">
-        <v>64.13</v>
+        <v>64.12</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1467,25 +1473,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C44">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D44">
         <v>962.09</v>
       </c>
       <c r="E44">
-        <v>2212.05</v>
+        <v>2210.76</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J44">
-        <v>1871.58</v>
+        <v>1871</v>
       </c>
       <c r="K44">
-        <v>65.06</v>
+        <v>65.05</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1493,7 +1499,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C45">
         <v>3333.57</v>
@@ -1505,13 +1511,13 @@
         <v>2285.18</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J45">
-        <v>1930.66</v>
+        <v>1930.17</v>
       </c>
       <c r="K45">
-        <v>65.56</v>
+        <v>65.55</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1519,13 +1525,13 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46">
         <v>1203.18</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1533,13 +1539,13 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>1388.31</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1547,13 +1553,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D48">
         <v>1332.97</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1561,13 +1567,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D49">
         <v>1275.45</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1575,19 +1581,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50">
-        <v>3174.14</v>
+        <v>3172.86</v>
       </c>
       <c r="D50">
         <v>1160</v>
       </c>
       <c r="E50">
-        <v>2014.14</v>
+        <v>2012.86</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G50">
         <v>0.9399999999999999</v>
@@ -1599,7 +1605,7 @@
         <v>1787.14</v>
       </c>
       <c r="J50">
-        <v>1941.1</v>
+        <v>1940.51</v>
       </c>
       <c r="K50">
         <v>65.29000000000001</v>
@@ -1610,7 +1616,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>3333.57</v>
@@ -1622,10 +1628,10 @@
         <v>2512.09</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J51">
-        <v>2004.54</v>
+        <v>2004.02</v>
       </c>
       <c r="K51">
         <v>66.41</v>
@@ -1636,13 +1642,13 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D52">
         <v>1244.2</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1650,13 +1656,13 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D53">
         <v>1381.27</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1664,13 +1670,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>1616.94</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1678,13 +1684,13 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>853.03</v>
       </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1692,13 +1698,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D56">
         <v>988.45</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1706,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57">
         <v>3333.57</v>
@@ -1718,7 +1724,7 @@
         <v>2351.16</v>
       </c>
       <c r="F57" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H57">
         <v>74.83</v>
@@ -1727,7 +1733,7 @@
         <v>2375.29</v>
       </c>
       <c r="J57">
-        <v>2039.2</v>
+        <v>2038.73</v>
       </c>
       <c r="K57">
         <v>66.81999999999999</v>
@@ -1738,13 +1744,13 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>1071.37</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1752,13 +1758,13 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59">
         <v>1058.26</v>
       </c>
       <c r="F59" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1766,13 +1772,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60">
         <v>1202.37</v>
       </c>
       <c r="F60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1780,13 +1786,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61">
         <v>1278.63</v>
       </c>
       <c r="F61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1794,13 +1800,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62">
         <v>1372.63</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1808,13 +1814,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63">
         <v>1444.39</v>
       </c>
       <c r="F63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1822,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>3333.57</v>
@@ -1834,7 +1840,7 @@
         <v>2285.57</v>
       </c>
       <c r="F64" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G64">
         <v>0.83</v>
@@ -1846,94 +1852,201 @@
         <v>2035.15</v>
       </c>
       <c r="J64">
-        <v>2061.6</v>
+        <v>2061.17</v>
       </c>
       <c r="K64">
         <v>66.98</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D65">
         <v>1071.76</v>
       </c>
       <c r="F65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D66">
         <v>1272.38</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D67">
         <v>1370.74</v>
       </c>
       <c r="F67" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D68">
         <v>859.61</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D69">
         <v>1000.1</v>
       </c>
       <c r="F69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D70">
         <v>1335.68</v>
       </c>
       <c r="F70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71">
+        <v>1035.09</v>
+      </c>
+      <c r="F71" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71">
+        <v>1.04</v>
+      </c>
+      <c r="H71">
+        <v>81.7</v>
+      </c>
+      <c r="I71">
+        <v>2723.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72">
+        <v>1111.9</v>
+      </c>
+      <c r="F72" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73">
+        <v>1166.38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>15</v>
+      </c>
+      <c r="B74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D74">
+        <v>1389.9</v>
+      </c>
+      <c r="F74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75">
+        <v>1404.44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
         <v>59</v>
+      </c>
+      <c r="D76">
+        <v>1381.08</v>
+      </c>
+      <c r="F76" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77">
+        <v>1911.53</v>
+      </c>
+      <c r="F77" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="64">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-23</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -557,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -615,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.92</v>
@@ -632,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -644,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,7 +658,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -664,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -672,7 +678,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -684,7 +690,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -692,7 +698,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -704,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,7 +718,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -724,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -732,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -744,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -752,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -764,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -772,7 +778,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -784,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,7 +798,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -804,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -812,7 +818,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -824,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -832,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -844,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -852,7 +858,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -864,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -872,7 +878,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -892,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -904,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -912,7 +918,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -924,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -932,7 +938,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -944,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -952,7 +958,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -964,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -972,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -984,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -992,7 +998,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1004,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1012,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1024,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1032,7 +1038,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1044,7 +1050,7 @@
         <v>289.67</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1052,7 +1058,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1064,7 +1070,7 @@
         <v>144.84</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1072,7 +1078,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1084,7 +1090,7 @@
         <v>276.7</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1092,7 +1098,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1104,7 +1110,7 @@
         <v>197.02</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1112,7 +1118,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1124,7 +1130,7 @@
         <v>21.68</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1132,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1144,7 +1150,7 @@
         <v>74.36</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1152,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1164,7 +1170,7 @@
         <v>158.24</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1172,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1184,7 +1190,7 @@
         <v>309.37</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1192,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1204,7 +1210,7 @@
         <v>703.79</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1212,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1224,7 +1230,7 @@
         <v>674.61</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1232,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1244,7 +1250,7 @@
         <v>1368.82</v>
       </c>
       <c r="F33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1252,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1264,7 +1270,7 @@
         <v>1522.83</v>
       </c>
       <c r="F34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1272,7 +1278,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1284,7 +1290,7 @@
         <v>1663.16</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1292,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>2241.86</v>
@@ -1304,7 +1310,7 @@
         <v>1280.26</v>
       </c>
       <c r="F36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J36">
         <v>1280.26</v>
@@ -1318,22 +1324,22 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D37">
         <v>982.09</v>
       </c>
       <c r="E37">
-        <v>1622.34</v>
+        <v>1622.91</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J37">
-        <v>1451.3</v>
+        <v>1451.59</v>
       </c>
       <c r="K37">
         <v>59.7</v>
@@ -1344,25 +1350,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D38">
         <v>1086.34</v>
       </c>
       <c r="E38">
-        <v>2086.52</v>
+        <v>2087.95</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J38">
-        <v>1663.04</v>
+        <v>1663.71</v>
       </c>
       <c r="K38">
-        <v>61.72</v>
+        <v>61.73</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1370,25 +1376,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D39">
         <v>1056.05</v>
       </c>
       <c r="E39">
-        <v>2277.52</v>
+        <v>2279.23</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J39">
-        <v>1816.66</v>
+        <v>1817.59</v>
       </c>
       <c r="K39">
-        <v>63.37</v>
+        <v>63.38</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1396,13 +1402,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C40">
+        <v>3085.57</v>
       </c>
       <c r="D40">
         <v>1099.45</v>
       </c>
+      <c r="E40">
+        <v>1986.12</v>
+      </c>
       <c r="F40" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J40">
+        <v>1851.29</v>
+      </c>
+      <c r="K40">
+        <v>63.58</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1410,13 +1428,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C41">
+        <v>3141</v>
       </c>
       <c r="D41">
         <v>1150.7</v>
       </c>
+      <c r="E41">
+        <v>1990.3</v>
+      </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J41">
+        <v>1874.46</v>
+      </c>
+      <c r="K41">
+        <v>63.54</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1424,13 +1454,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42">
         <v>1312.14</v>
       </c>
       <c r="F42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1438,19 +1468,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43">
-        <v>2604.43</v>
+        <v>2605</v>
       </c>
       <c r="D43">
         <v>855.8099999999999</v>
       </c>
       <c r="E43">
-        <v>1748.62</v>
+        <v>1749.19</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G43">
         <v>0.97</v>
@@ -1462,10 +1492,10 @@
         <v>1424.39</v>
       </c>
       <c r="J43">
-        <v>1803.05</v>
+        <v>1856.57</v>
       </c>
       <c r="K43">
-        <v>64.12</v>
+        <v>64.06</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1473,25 +1503,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C44">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D44">
         <v>962.09</v>
       </c>
       <c r="E44">
-        <v>2210.76</v>
+        <v>2212.19</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J44">
-        <v>1871</v>
+        <v>1901.02</v>
       </c>
       <c r="K44">
-        <v>65.05</v>
+        <v>64.76000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1499,25 +1529,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D45">
         <v>1048.4</v>
       </c>
       <c r="E45">
-        <v>2285.18</v>
+        <v>2286.89</v>
       </c>
       <c r="F45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J45">
-        <v>1930.17</v>
+        <v>1943.89</v>
       </c>
       <c r="K45">
-        <v>65.55</v>
+        <v>65.18000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1525,13 +1555,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C46">
+        <v>3085.57</v>
       </c>
       <c r="D46">
         <v>1203.18</v>
       </c>
+      <c r="E46">
+        <v>1882.4</v>
+      </c>
       <c r="F46" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J46">
+        <v>1937.74</v>
+      </c>
+      <c r="K46">
+        <v>64.77</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1539,13 +1581,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>3141</v>
       </c>
       <c r="D47">
         <v>1388.31</v>
       </c>
+      <c r="E47">
+        <v>1752.69</v>
+      </c>
       <c r="F47" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J47">
+        <v>1920.92</v>
+      </c>
+      <c r="K47">
+        <v>63.95</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1553,13 +1607,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D48">
         <v>1332.97</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1567,13 +1621,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D49">
         <v>1275.45</v>
       </c>
       <c r="F49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1581,19 +1635,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50">
-        <v>3172.86</v>
+        <v>3174.29</v>
       </c>
       <c r="D50">
         <v>1160</v>
       </c>
       <c r="E50">
-        <v>2012.86</v>
+        <v>2014.28</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G50">
         <v>0.9399999999999999</v>
@@ -1605,10 +1659,10 @@
         <v>1787.14</v>
       </c>
       <c r="J50">
-        <v>1940.51</v>
+        <v>1928.7</v>
       </c>
       <c r="K50">
-        <v>65.29000000000001</v>
+        <v>63.91</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1616,25 +1670,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D51">
         <v>821.48</v>
       </c>
       <c r="E51">
-        <v>2512.09</v>
+        <v>2513.8</v>
       </c>
       <c r="F51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J51">
-        <v>2004.02</v>
+        <v>1973.71</v>
       </c>
       <c r="K51">
-        <v>66.41</v>
+        <v>64.79000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1642,13 +1696,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C52">
+        <v>3085.57</v>
       </c>
       <c r="D52">
         <v>1244.2</v>
       </c>
+      <c r="E52">
+        <v>1841.37</v>
+      </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J52">
+        <v>1964.26</v>
+      </c>
+      <c r="K52">
+        <v>64.43000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1656,13 +1722,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C53">
+        <v>3141</v>
       </c>
       <c r="D53">
         <v>1381.27</v>
       </c>
+      <c r="E53">
+        <v>1759.73</v>
+      </c>
       <c r="F53" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J53">
+        <v>1950.62</v>
+      </c>
+      <c r="K53">
+        <v>63.87</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1670,13 +1748,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54">
         <v>1616.94</v>
       </c>
       <c r="F54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1684,13 +1762,13 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D55">
         <v>853.03</v>
       </c>
       <c r="F55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1698,13 +1776,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56">
         <v>988.45</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1712,19 +1790,19 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C57">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D57">
         <v>982.41</v>
       </c>
       <c r="E57">
-        <v>2351.16</v>
+        <v>2352.87</v>
       </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H57">
         <v>74.83</v>
@@ -1733,10 +1811,10 @@
         <v>2375.29</v>
       </c>
       <c r="J57">
-        <v>2038.73</v>
+        <v>1975.76</v>
       </c>
       <c r="K57">
-        <v>66.81999999999999</v>
+        <v>64.28</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1744,13 +1822,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <v>3085.57</v>
       </c>
       <c r="D58">
         <v>1071.37</v>
       </c>
+      <c r="E58">
+        <v>2014.21</v>
+      </c>
       <c r="F58" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J58">
+        <v>1978.02</v>
+      </c>
+      <c r="K58">
+        <v>64.34</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1758,13 +1848,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <v>3141</v>
       </c>
       <c r="D59">
         <v>1058.26</v>
       </c>
+      <c r="E59">
+        <v>2082.74</v>
+      </c>
       <c r="F59" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="J59">
+        <v>1983.84</v>
+      </c>
+      <c r="K59">
+        <v>64.45</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1772,13 +1874,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <v>1202.37</v>
       </c>
       <c r="F60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1786,13 +1888,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <v>1278.63</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1800,13 +1902,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>1372.63</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1814,13 +1916,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>1444.39</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1828,19 +1930,19 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C64">
-        <v>3333.57</v>
+        <v>3335.29</v>
       </c>
       <c r="D64">
         <v>1048</v>
       </c>
       <c r="E64">
-        <v>2285.57</v>
+        <v>2287.28</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G64">
         <v>0.83</v>
@@ -1852,108 +1954,138 @@
         <v>2035.15</v>
       </c>
       <c r="J64">
-        <v>2061.17</v>
+        <v>1999.81</v>
       </c>
       <c r="K64">
-        <v>66.98</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>64.67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>3085.57</v>
       </c>
       <c r="D65">
         <v>1071.76</v>
       </c>
+      <c r="E65">
+        <v>2013.81</v>
+      </c>
       <c r="F65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J65">
+        <v>2000.51</v>
+      </c>
+      <c r="K65">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>3141</v>
       </c>
       <c r="D66">
         <v>1272.38</v>
       </c>
+      <c r="E66">
+        <v>1868.62</v>
+      </c>
       <c r="F66" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J66">
+        <v>1994.23</v>
+      </c>
+      <c r="K66">
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D67">
         <v>1370.74</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D68">
         <v>859.61</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D69">
         <v>1000.1</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D70">
         <v>1335.68</v>
       </c>
       <c r="F70" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <v>3085.57</v>
       </c>
       <c r="D71">
         <v>1035.09</v>
       </c>
+      <c r="E71">
+        <v>2050.48</v>
+      </c>
       <c r="F71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G71">
         <v>1.04</v>
@@ -1964,89 +2096,357 @@
       <c r="I71">
         <v>2723.52</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71">
+        <v>1996.79</v>
+      </c>
+      <c r="K71">
+        <v>64.54000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C72">
+        <v>3141</v>
       </c>
       <c r="D72">
         <v>1111.9</v>
       </c>
+      <c r="E72">
+        <v>2029.1</v>
+      </c>
       <c r="F72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="J72">
+        <v>1998.19</v>
+      </c>
+      <c r="K72">
+        <v>64.54000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D73">
         <v>1166.38</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D74">
         <v>1389.9</v>
       </c>
       <c r="F74" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" t="s">
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D75">
         <v>1404.44</v>
       </c>
       <c r="F75" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D76">
         <v>1381.08</v>
       </c>
       <c r="F76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D77">
         <v>1911.53</v>
       </c>
       <c r="F77" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78">
+        <v>3085.57</v>
+      </c>
+      <c r="D78">
+        <v>1051.11</v>
+      </c>
+      <c r="E78">
+        <v>2034.46</v>
+      </c>
+      <c r="F78" t="s">
+        <v>63</v>
+      </c>
+      <c r="G78">
+        <v>0.84</v>
+      </c>
+      <c r="H78">
+        <v>66.15000000000001</v>
+      </c>
+      <c r="I78">
+        <v>2205</v>
+      </c>
+      <c r="J78">
+        <v>1999.7</v>
+      </c>
+      <c r="K78">
+        <v>64.59999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C79">
+        <v>3141</v>
+      </c>
+      <c r="D79">
+        <v>1358.87</v>
+      </c>
+      <c r="E79">
+        <v>1782.13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>63</v>
+      </c>
+      <c r="J79">
+        <v>1991</v>
+      </c>
+      <c r="K79">
+        <v>64.29000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>1366.88</v>
+      </c>
+      <c r="F80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81">
+        <v>861.87</v>
+      </c>
+      <c r="F81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82">
+        <v>1001.39</v>
+      </c>
+      <c r="F82" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83">
+        <v>1337.64</v>
+      </c>
+      <c r="F83" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" t="s">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
         <v>61</v>
+      </c>
+      <c r="D84">
+        <v>1480.23</v>
+      </c>
+      <c r="F84" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85">
+        <v>3141</v>
+      </c>
+      <c r="D85">
+        <v>760.13</v>
+      </c>
+      <c r="E85">
+        <v>2380.87</v>
+      </c>
+      <c r="F85" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85">
+        <v>1.01</v>
+      </c>
+      <c r="H85">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="I85">
+        <v>2283.68</v>
+      </c>
+      <c r="J85">
+        <v>2006</v>
+      </c>
+      <c r="K85">
+        <v>64.73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>795.34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87">
+        <v>810.16</v>
+      </c>
+      <c r="F87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88">
+        <v>869.78</v>
+      </c>
+      <c r="F88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <v>1001.3</v>
+      </c>
+      <c r="F89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90">
+        <v>1084.79</v>
+      </c>
+      <c r="F90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91">
+        <v>1223.21</v>
+      </c>
+      <c r="F91" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -67,6 +67,9 @@
     <t>2021-01-23</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -203,6 +206,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -563,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -621,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.92</v>
@@ -638,7 +644,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -650,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -670,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -690,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -710,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -730,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -750,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -770,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -790,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +804,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -810,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -830,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +844,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -850,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -870,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +904,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -910,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -930,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +944,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -950,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +964,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -970,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +984,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -990,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1010,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1024,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1030,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1050,7 +1056,7 @@
         <v>289.67</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1070,7 +1076,7 @@
         <v>144.84</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1090,7 +1096,7 @@
         <v>276.7</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1110,7 +1116,7 @@
         <v>197.02</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1130,7 +1136,7 @@
         <v>21.68</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1144,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1150,7 +1156,7 @@
         <v>74.36</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1170,7 +1176,7 @@
         <v>158.24</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1190,7 +1196,7 @@
         <v>309.37</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1210,7 +1216,7 @@
         <v>703.79</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1224,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1230,7 +1236,7 @@
         <v>674.61</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1250,7 +1256,7 @@
         <v>1368.82</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1270,7 +1276,7 @@
         <v>1522.83</v>
       </c>
       <c r="F34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1284,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1290,7 +1296,7 @@
         <v>1663.16</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1304,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>2241.86</v>
@@ -1310,7 +1316,7 @@
         <v>1280.26</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J36">
         <v>1280.26</v>
@@ -1324,25 +1330,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D37">
         <v>982.09</v>
       </c>
       <c r="E37">
-        <v>1622.91</v>
+        <v>1623.34</v>
       </c>
       <c r="F37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J37">
-        <v>1451.59</v>
+        <v>1451.8</v>
       </c>
       <c r="K37">
-        <v>59.7</v>
+        <v>59.71</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,19 +1356,19 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D38">
         <v>1086.34</v>
       </c>
       <c r="E38">
-        <v>2087.95</v>
+        <v>2087.52</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J38">
         <v>1663.71</v>
@@ -1376,7 +1382,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
         <v>3335.29</v>
@@ -1388,7 +1394,7 @@
         <v>2279.23</v>
       </c>
       <c r="F39" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J39">
         <v>1817.59</v>
@@ -1402,7 +1408,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40">
         <v>3085.57</v>
@@ -1414,7 +1420,7 @@
         <v>1986.12</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J40">
         <v>1851.29</v>
@@ -1428,25 +1434,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D41">
         <v>1150.7</v>
       </c>
       <c r="E41">
-        <v>1990.3</v>
+        <v>1999.87</v>
       </c>
       <c r="F41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J41">
-        <v>1874.46</v>
+        <v>1876.06</v>
       </c>
       <c r="K41">
-        <v>63.54</v>
+        <v>63.56</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1454,13 +1460,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D42">
         <v>1312.14</v>
       </c>
       <c r="F42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1468,19 +1474,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C43">
-        <v>2605</v>
+        <v>2605.43</v>
       </c>
       <c r="D43">
         <v>855.8099999999999</v>
       </c>
       <c r="E43">
-        <v>1749.19</v>
+        <v>1749.62</v>
       </c>
       <c r="F43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G43">
         <v>0.97</v>
@@ -1492,10 +1498,10 @@
         <v>1424.39</v>
       </c>
       <c r="J43">
-        <v>1856.57</v>
+        <v>1857.99</v>
       </c>
       <c r="K43">
-        <v>64.06</v>
+        <v>64.06999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1503,25 +1509,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C44">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D44">
         <v>962.09</v>
       </c>
       <c r="E44">
-        <v>2212.19</v>
+        <v>2211.76</v>
       </c>
       <c r="F44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J44">
-        <v>1901.02</v>
+        <v>1902.22</v>
       </c>
       <c r="K44">
-        <v>64.76000000000001</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1529,7 +1535,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C45">
         <v>3335.29</v>
@@ -1541,13 +1547,13 @@
         <v>2286.89</v>
       </c>
       <c r="F45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J45">
-        <v>1943.89</v>
+        <v>1944.96</v>
       </c>
       <c r="K45">
-        <v>65.18000000000001</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1555,7 +1561,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46">
         <v>3085.57</v>
@@ -1567,13 +1573,13 @@
         <v>1882.4</v>
       </c>
       <c r="F46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J46">
-        <v>1937.74</v>
+        <v>1938.7</v>
       </c>
       <c r="K46">
-        <v>64.77</v>
+        <v>64.78</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1581,25 +1587,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C47">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D47">
         <v>1388.31</v>
       </c>
       <c r="E47">
-        <v>1752.69</v>
+        <v>1762.26</v>
       </c>
       <c r="F47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J47">
-        <v>1920.92</v>
+        <v>1922.66</v>
       </c>
       <c r="K47">
-        <v>63.95</v>
+        <v>63.97</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1607,13 +1613,13 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48">
         <v>1332.97</v>
       </c>
       <c r="F48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1621,13 +1627,13 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49">
         <v>1275.45</v>
       </c>
       <c r="F49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1635,19 +1641,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50">
-        <v>3174.29</v>
+        <v>3173.86</v>
       </c>
       <c r="D50">
         <v>1160</v>
       </c>
       <c r="E50">
-        <v>2014.28</v>
+        <v>2013.86</v>
       </c>
       <c r="F50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G50">
         <v>0.9399999999999999</v>
@@ -1659,10 +1665,10 @@
         <v>1787.14</v>
       </c>
       <c r="J50">
-        <v>1928.7</v>
+        <v>1930.26</v>
       </c>
       <c r="K50">
-        <v>63.91</v>
+        <v>63.93</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1670,7 +1676,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51">
         <v>3335.29</v>
@@ -1682,13 +1688,13 @@
         <v>2513.8</v>
       </c>
       <c r="F51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J51">
-        <v>1973.71</v>
+        <v>1975.15</v>
       </c>
       <c r="K51">
-        <v>64.79000000000001</v>
+        <v>64.81</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1696,7 +1702,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52">
         <v>3085.57</v>
@@ -1708,13 +1714,13 @@
         <v>1841.37</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J52">
-        <v>1964.26</v>
+        <v>1965.59</v>
       </c>
       <c r="K52">
-        <v>64.43000000000001</v>
+        <v>64.44</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1722,25 +1728,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D53">
         <v>1381.27</v>
       </c>
       <c r="E53">
-        <v>1759.73</v>
+        <v>1769.3</v>
       </c>
       <c r="F53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J53">
-        <v>1950.62</v>
+        <v>1952.51</v>
       </c>
       <c r="K53">
-        <v>63.87</v>
+        <v>63.89</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1748,13 +1754,13 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54">
         <v>1616.94</v>
       </c>
       <c r="F54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1762,13 +1768,13 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>853.03</v>
       </c>
       <c r="F55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1776,13 +1782,13 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D56">
         <v>988.45</v>
       </c>
       <c r="F56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1790,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>3335.29</v>
@@ -1802,7 +1808,7 @@
         <v>2352.87</v>
       </c>
       <c r="F57" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H57">
         <v>74.83</v>
@@ -1811,10 +1817,10 @@
         <v>2375.29</v>
       </c>
       <c r="J57">
-        <v>1975.76</v>
+        <v>1977.53</v>
       </c>
       <c r="K57">
-        <v>64.28</v>
+        <v>64.31</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1822,7 +1828,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58">
         <v>3085.57</v>
@@ -1834,13 +1840,13 @@
         <v>2014.21</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J58">
-        <v>1978.02</v>
+        <v>1979.69</v>
       </c>
       <c r="K58">
-        <v>64.34</v>
+        <v>64.36</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1848,25 +1854,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D59">
         <v>1058.26</v>
       </c>
       <c r="E59">
-        <v>2082.74</v>
+        <v>2092.31</v>
       </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J59">
-        <v>1983.84</v>
+        <v>1985.94</v>
       </c>
       <c r="K59">
-        <v>64.45</v>
+        <v>64.48</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1874,13 +1880,13 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60">
         <v>1202.37</v>
       </c>
       <c r="F60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1888,13 +1894,13 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>1278.63</v>
       </c>
       <c r="F61" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1902,13 +1908,13 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>1372.63</v>
       </c>
       <c r="F62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1916,13 +1922,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>1444.39</v>
       </c>
       <c r="F63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1930,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64">
         <v>3335.29</v>
@@ -1942,7 +1948,7 @@
         <v>2287.28</v>
       </c>
       <c r="F64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G64">
         <v>0.83</v>
@@ -1954,10 +1960,10 @@
         <v>2035.15</v>
       </c>
       <c r="J64">
-        <v>1999.81</v>
+        <v>2001.8</v>
       </c>
       <c r="K64">
-        <v>64.67</v>
+        <v>64.69</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1965,7 +1971,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65">
         <v>3085.57</v>
@@ -1977,13 +1983,13 @@
         <v>2013.81</v>
       </c>
       <c r="F65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J65">
-        <v>2000.51</v>
+        <v>2002.4</v>
       </c>
       <c r="K65">
-        <v>64.7</v>
+        <v>64.72</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1991,25 +1997,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D66">
         <v>1272.38</v>
       </c>
       <c r="E66">
-        <v>1868.62</v>
+        <v>1878.19</v>
       </c>
       <c r="F66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J66">
-        <v>1994.23</v>
+        <v>1996.49</v>
       </c>
       <c r="K66">
-        <v>64.45</v>
+        <v>64.48</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2017,13 +2023,13 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D67">
         <v>1370.74</v>
       </c>
       <c r="F67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2031,13 +2037,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <v>859.61</v>
       </c>
       <c r="F68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2045,13 +2051,13 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>1000.1</v>
       </c>
       <c r="F69" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2059,13 +2065,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>1335.68</v>
       </c>
       <c r="F70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2073,7 +2079,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71">
         <v>3085.57</v>
@@ -2085,7 +2091,7 @@
         <v>2050.48</v>
       </c>
       <c r="F71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G71">
         <v>1.04</v>
@@ -2097,10 +2103,10 @@
         <v>2723.52</v>
       </c>
       <c r="J71">
-        <v>1996.79</v>
+        <v>1998.94</v>
       </c>
       <c r="K71">
-        <v>64.54000000000001</v>
+        <v>64.56999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2108,25 +2114,25 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D72">
         <v>1111.9</v>
       </c>
       <c r="E72">
-        <v>2029.1</v>
+        <v>2038.67</v>
       </c>
       <c r="F72" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J72">
-        <v>1998.19</v>
+        <v>2000.67</v>
       </c>
       <c r="K72">
-        <v>64.54000000000001</v>
+        <v>64.56999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2134,13 +2140,13 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D73">
         <v>1166.38</v>
       </c>
       <c r="F73" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2148,13 +2154,13 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D74">
         <v>1389.9</v>
       </c>
       <c r="F74" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2162,13 +2168,13 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <v>1404.44</v>
       </c>
       <c r="F75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2176,13 +2182,13 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D76">
         <v>1381.08</v>
       </c>
       <c r="F76" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2190,13 +2196,13 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D77">
         <v>1911.53</v>
       </c>
       <c r="F77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2204,7 +2210,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78">
         <v>3085.57</v>
@@ -2216,7 +2222,7 @@
         <v>2034.46</v>
       </c>
       <c r="F78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G78">
         <v>0.84</v>
@@ -2228,10 +2234,10 @@
         <v>2205</v>
       </c>
       <c r="J78">
-        <v>1999.7</v>
+        <v>2002.08</v>
       </c>
       <c r="K78">
-        <v>64.59999999999999</v>
+        <v>64.63</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2239,25 +2245,25 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C79">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D79">
         <v>1358.87</v>
       </c>
       <c r="E79">
-        <v>1782.13</v>
+        <v>1791.7</v>
       </c>
       <c r="F79" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J79">
-        <v>1991</v>
+        <v>1993.66</v>
       </c>
       <c r="K79">
-        <v>64.29000000000001</v>
+        <v>64.31999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2265,13 +2271,13 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D80">
         <v>1366.88</v>
       </c>
       <c r="F80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2279,13 +2285,13 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D81">
         <v>861.87</v>
       </c>
       <c r="F81" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2293,13 +2299,13 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D82">
         <v>1001.39</v>
       </c>
       <c r="F82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2307,13 +2313,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <v>1337.64</v>
       </c>
       <c r="F83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2321,13 +2327,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <v>1480.23</v>
       </c>
       <c r="F84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2335,19 +2341,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C85">
-        <v>3141</v>
+        <v>3150.57</v>
       </c>
       <c r="D85">
         <v>760.13</v>
       </c>
       <c r="E85">
-        <v>2380.87</v>
+        <v>2390.45</v>
       </c>
       <c r="F85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G85">
         <v>1.01</v>
@@ -2359,10 +2365,10 @@
         <v>2283.68</v>
       </c>
       <c r="J85">
-        <v>2006</v>
+        <v>2008.92</v>
       </c>
       <c r="K85">
-        <v>64.73</v>
+        <v>64.77</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2370,13 +2376,13 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D86">
         <v>795.34</v>
       </c>
       <c r="F86" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2384,13 +2390,13 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D87">
         <v>810.16</v>
       </c>
       <c r="F87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2398,13 +2404,13 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D88">
         <v>869.78</v>
       </c>
       <c r="F88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2412,13 +2418,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D89">
         <v>1001.3</v>
       </c>
       <c r="F89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2426,13 +2432,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D90">
         <v>1084.79</v>
       </c>
       <c r="F90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2440,13 +2446,236 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D91">
         <v>1223.21</v>
       </c>
       <c r="F91" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92">
+        <v>3150.57</v>
+      </c>
+      <c r="D92">
+        <v>1328.59</v>
+      </c>
+      <c r="E92">
+        <v>1821.98</v>
+      </c>
+      <c r="F92" t="s">
+        <v>65</v>
+      </c>
+      <c r="H92">
+        <v>67.39</v>
+      </c>
+      <c r="I92">
+        <v>2079.28</v>
+      </c>
+      <c r="J92">
+        <v>2002</v>
+      </c>
+      <c r="K92">
+        <v>64.51000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93">
+        <v>1346.25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>1328.95</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95">
+        <v>1366.69</v>
+      </c>
+      <c r="F95" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96">
+        <v>1096.52</v>
+      </c>
+      <c r="F96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97">
+        <v>1216.25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
         <v>63</v>
+      </c>
+      <c r="D98">
+        <v>1474.7</v>
+      </c>
+      <c r="F98" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99">
+        <v>923.51</v>
+      </c>
+      <c r="F99" t="s">
+        <v>65</v>
+      </c>
+      <c r="G99">
+        <v>1.02</v>
+      </c>
+      <c r="H99">
+        <v>75.2</v>
+      </c>
+      <c r="I99">
+        <v>2369.26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>17</v>
+      </c>
+      <c r="B100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100">
+        <v>1020.78</v>
+      </c>
+      <c r="F100" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>17</v>
+      </c>
+      <c r="B101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101">
+        <v>1034.15</v>
+      </c>
+      <c r="F101" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" t="s">
+        <v>61</v>
+      </c>
+      <c r="D102">
+        <v>1165.39</v>
+      </c>
+      <c r="F102" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>17</v>
+      </c>
+      <c r="B103" t="s">
+        <v>62</v>
+      </c>
+      <c r="D103">
+        <v>1382.14</v>
+      </c>
+      <c r="F103" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>17</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="D104">
+        <v>1612.47</v>
+      </c>
+      <c r="F104" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>17</v>
+      </c>
+      <c r="B105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105">
+        <v>1944.6</v>
+      </c>
+      <c r="F105" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -70,6 +70,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>0.92</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1056,7 +1062,7 @@
         <v>289.67</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1076,7 +1082,7 @@
         <v>144.84</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1096,7 +1102,7 @@
         <v>276.7</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1116,7 +1122,7 @@
         <v>197.02</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1136,7 +1142,7 @@
         <v>21.68</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1156,7 +1162,7 @@
         <v>74.36</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1176,7 +1182,7 @@
         <v>158.24</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1196,7 +1202,7 @@
         <v>309.37</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1216,7 +1222,7 @@
         <v>703.79</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1236,7 +1242,7 @@
         <v>674.61</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1256,7 +1262,7 @@
         <v>1368.82</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1276,7 +1282,7 @@
         <v>1522.83</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1296,7 +1302,7 @@
         <v>1663.16</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C36">
         <v>2241.86</v>
@@ -1316,7 +1322,7 @@
         <v>1280.26</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J36">
         <v>1280.26</v>
@@ -1330,25 +1336,25 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C37">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D37">
         <v>982.09</v>
       </c>
       <c r="E37">
-        <v>1623.34</v>
+        <v>1701.34</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J37">
-        <v>1451.8</v>
+        <v>1490.8</v>
       </c>
       <c r="K37">
-        <v>59.71</v>
+        <v>60.25</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1356,25 +1362,25 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D38">
         <v>1086.34</v>
       </c>
       <c r="E38">
-        <v>2087.52</v>
+        <v>2061.81</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J38">
-        <v>1663.71</v>
+        <v>1681.14</v>
       </c>
       <c r="K38">
-        <v>61.73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1382,25 +1388,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D39">
         <v>1056.05</v>
       </c>
       <c r="E39">
-        <v>2279.23</v>
+        <v>2278.23</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J39">
-        <v>1817.59</v>
+        <v>1830.41</v>
       </c>
       <c r="K39">
-        <v>63.38</v>
+        <v>63.58</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1408,25 +1414,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C40">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D40">
         <v>1099.45</v>
       </c>
       <c r="E40">
-        <v>1986.12</v>
+        <v>1959.55</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J40">
-        <v>1851.29</v>
+        <v>1856.24</v>
       </c>
       <c r="K40">
-        <v>63.58</v>
+        <v>63.68</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1434,25 +1440,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C41">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D41">
         <v>1150.7</v>
       </c>
       <c r="E41">
-        <v>1999.87</v>
+        <v>1979.59</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J41">
-        <v>1876.06</v>
+        <v>1876.79</v>
       </c>
       <c r="K41">
-        <v>63.56</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1460,13 +1466,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>2986.71</v>
       </c>
       <c r="D42">
         <v>1312.14</v>
       </c>
+      <c r="E42">
+        <v>1674.58</v>
+      </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J42">
+        <v>1847.91</v>
+      </c>
+      <c r="K42">
+        <v>62.53</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1474,19 +1492,19 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
-        <v>2605.43</v>
+        <v>2683.43</v>
       </c>
       <c r="D43">
         <v>855.8099999999999</v>
       </c>
       <c r="E43">
-        <v>1749.62</v>
+        <v>1827.62</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G43">
         <v>0.97</v>
@@ -1498,10 +1516,10 @@
         <v>1424.39</v>
       </c>
       <c r="J43">
-        <v>1857.99</v>
+        <v>1845.37</v>
       </c>
       <c r="K43">
-        <v>64.06999999999999</v>
+        <v>63.23</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1509,25 +1527,25 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D44">
         <v>962.09</v>
       </c>
       <c r="E44">
-        <v>2211.76</v>
+        <v>2186.05</v>
       </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J44">
-        <v>1902.22</v>
+        <v>1883.22</v>
       </c>
       <c r="K44">
-        <v>64.78</v>
+        <v>63.92</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1535,25 +1553,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D45">
         <v>1048.4</v>
       </c>
       <c r="E45">
-        <v>2286.89</v>
+        <v>2285.89</v>
       </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J45">
-        <v>1944.96</v>
+        <v>1923.49</v>
       </c>
       <c r="K45">
-        <v>65.2</v>
+        <v>64.38</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1561,25 +1579,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D46">
         <v>1203.18</v>
       </c>
       <c r="E46">
-        <v>1882.4</v>
+        <v>1855.82</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J46">
-        <v>1938.7</v>
+        <v>1917.34</v>
       </c>
       <c r="K46">
-        <v>64.78</v>
+        <v>64.04000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1587,25 +1605,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C47">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D47">
         <v>1388.31</v>
       </c>
       <c r="E47">
-        <v>1762.26</v>
+        <v>1741.97</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J47">
-        <v>1922.66</v>
+        <v>1902.73</v>
       </c>
       <c r="K47">
-        <v>63.97</v>
+        <v>63.34</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1613,13 +1631,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>2986.71</v>
       </c>
       <c r="D48">
         <v>1332.97</v>
       </c>
+      <c r="E48">
+        <v>1653.74</v>
+      </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J48">
+        <v>1883.57</v>
+      </c>
+      <c r="K48">
+        <v>62.73</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1627,13 +1657,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>2487.29</v>
       </c>
       <c r="D49">
         <v>1275.45</v>
       </c>
+      <c r="E49">
+        <v>1211.84</v>
+      </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J49">
+        <v>1835.59</v>
+      </c>
+      <c r="K49">
+        <v>61.73</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1641,19 +1683,19 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>3173.86</v>
+        <v>3148.14</v>
       </c>
       <c r="D50">
         <v>1160</v>
       </c>
       <c r="E50">
-        <v>2013.86</v>
+        <v>1988.14</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G50">
         <v>0.9399999999999999</v>
@@ -1665,10 +1707,10 @@
         <v>1787.14</v>
       </c>
       <c r="J50">
-        <v>1930.26</v>
+        <v>1845.76</v>
       </c>
       <c r="K50">
-        <v>63.93</v>
+        <v>61.82</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1676,25 +1718,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D51">
         <v>821.48</v>
       </c>
       <c r="E51">
-        <v>2513.8</v>
+        <v>2512.8</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J51">
-        <v>1975.15</v>
+        <v>1887.45</v>
       </c>
       <c r="K51">
-        <v>64.81</v>
+        <v>62.67</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1702,25 +1744,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D52">
         <v>1244.2</v>
       </c>
       <c r="E52">
-        <v>1841.37</v>
+        <v>1814.8</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J52">
-        <v>1965.59</v>
+        <v>1883.18</v>
       </c>
       <c r="K52">
-        <v>64.44</v>
+        <v>62.47</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1728,25 +1770,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D53">
         <v>1381.27</v>
       </c>
       <c r="E53">
-        <v>1769.3</v>
+        <v>1749.02</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J53">
-        <v>1952.51</v>
+        <v>1875.73</v>
       </c>
       <c r="K53">
-        <v>63.89</v>
+        <v>62.11</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1754,13 +1796,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C54">
+        <v>2986.71</v>
       </c>
       <c r="D54">
         <v>1616.94</v>
       </c>
+      <c r="E54">
+        <v>1369.78</v>
+      </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J54">
+        <v>1849.1</v>
+      </c>
+      <c r="K54">
+        <v>61.25</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1768,13 +1822,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C55">
+        <v>2487.29</v>
       </c>
       <c r="D55">
         <v>853.03</v>
       </c>
+      <c r="E55">
+        <v>1634.25</v>
+      </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J55">
+        <v>1838.35</v>
+      </c>
+      <c r="K55">
+        <v>61.47</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1782,13 +1848,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C56">
+        <v>1906.71</v>
       </c>
       <c r="D56">
         <v>988.45</v>
       </c>
+      <c r="E56">
+        <v>918.26</v>
+      </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J56">
+        <v>1794.54</v>
+      </c>
+      <c r="K56">
+        <v>60.84</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1796,19 +1874,19 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D57">
         <v>982.41</v>
       </c>
       <c r="E57">
-        <v>2352.87</v>
+        <v>2351.87</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H57">
         <v>74.83</v>
@@ -1817,10 +1895,10 @@
         <v>2375.29</v>
       </c>
       <c r="J57">
-        <v>1977.53</v>
+        <v>1819.87</v>
       </c>
       <c r="K57">
-        <v>64.31</v>
+        <v>61.28</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1828,25 +1906,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D58">
         <v>1071.37</v>
       </c>
       <c r="E58">
-        <v>2014.21</v>
+        <v>1987.63</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J58">
-        <v>1979.69</v>
+        <v>1827.17</v>
       </c>
       <c r="K58">
-        <v>64.36</v>
+        <v>61.44</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1854,25 +1932,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D59">
         <v>1058.26</v>
       </c>
       <c r="E59">
-        <v>2092.31</v>
+        <v>2072.02</v>
       </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J59">
-        <v>1985.94</v>
+        <v>1837.37</v>
       </c>
       <c r="K59">
-        <v>64.48</v>
+        <v>61.64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1880,13 +1958,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>2986.71</v>
       </c>
       <c r="D60">
         <v>1202.37</v>
       </c>
+      <c r="E60">
+        <v>1784.34</v>
+      </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J60">
+        <v>1835.25</v>
+      </c>
+      <c r="K60">
+        <v>61.56</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1894,13 +1984,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>2487.29</v>
       </c>
       <c r="D61">
         <v>1278.63</v>
       </c>
+      <c r="E61">
+        <v>1208.66</v>
+      </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J61">
+        <v>1811.15</v>
+      </c>
+      <c r="K61">
+        <v>61.07</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1908,13 +2010,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>1906.71</v>
       </c>
       <c r="D62">
         <v>1372.63</v>
       </c>
+      <c r="E62">
+        <v>534.09</v>
+      </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J62">
+        <v>1763.85</v>
+      </c>
+      <c r="K62">
+        <v>59.84</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1922,13 +2036,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>1444.39</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1936,19 +2050,19 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64">
-        <v>3335.29</v>
+        <v>3334.29</v>
       </c>
       <c r="D64">
         <v>1048</v>
       </c>
       <c r="E64">
-        <v>2287.28</v>
+        <v>2286.28</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G64">
         <v>0.83</v>
@@ -1960,10 +2074,10 @@
         <v>2035.15</v>
       </c>
       <c r="J64">
-        <v>2001.8</v>
+        <v>1782.51</v>
       </c>
       <c r="K64">
-        <v>64.69</v>
+        <v>60.15</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1971,25 +2085,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D65">
         <v>1071.76</v>
       </c>
       <c r="E65">
-        <v>2013.81</v>
+        <v>1987.24</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J65">
-        <v>2002.4</v>
+        <v>1789.57</v>
       </c>
       <c r="K65">
-        <v>64.72</v>
+        <v>60.32</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1997,25 +2111,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C66">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D66">
         <v>1272.38</v>
       </c>
       <c r="E66">
-        <v>1878.19</v>
+        <v>1857.9</v>
       </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J66">
-        <v>1996.49</v>
+        <v>1791.85</v>
       </c>
       <c r="K66">
-        <v>64.48</v>
+        <v>60.29</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2023,13 +2137,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C67">
+        <v>2986.71</v>
       </c>
       <c r="D67">
         <v>1370.74</v>
       </c>
+      <c r="E67">
+        <v>1615.98</v>
+      </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J67">
+        <v>1786.17</v>
+      </c>
+      <c r="K67">
+        <v>60.09</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2037,13 +2163,25 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C68">
+        <v>2487.29</v>
       </c>
       <c r="D68">
         <v>859.61</v>
       </c>
+      <c r="E68">
+        <v>1627.68</v>
+      </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J68">
+        <v>1781.22</v>
+      </c>
+      <c r="K68">
+        <v>60.25</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2051,13 +2189,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C69">
+        <v>1906.71</v>
       </c>
       <c r="D69">
         <v>1000.1</v>
       </c>
+      <c r="E69">
+        <v>906.61</v>
+      </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J69">
+        <v>1754.72</v>
+      </c>
+      <c r="K69">
+        <v>59.87</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2065,13 +2215,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>1335.68</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2079,19 +2229,19 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C71">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D71">
         <v>1035.09</v>
       </c>
       <c r="E71">
-        <v>2050.48</v>
+        <v>2023.91</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G71">
         <v>1.04</v>
@@ -2103,10 +2253,10 @@
         <v>2723.52</v>
       </c>
       <c r="J71">
-        <v>1998.94</v>
+        <v>1762.63</v>
       </c>
       <c r="K71">
-        <v>64.56999999999999</v>
+        <v>60.05</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2114,25 +2264,25 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D72">
         <v>1111.9</v>
       </c>
       <c r="E72">
-        <v>2038.67</v>
+        <v>2018.38</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J72">
-        <v>2000.67</v>
+        <v>1769.94</v>
       </c>
       <c r="K72">
-        <v>64.56999999999999</v>
+        <v>60.18</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2140,13 +2290,25 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C73">
+        <v>2986.71</v>
       </c>
       <c r="D73">
         <v>1166.38</v>
       </c>
+      <c r="E73">
+        <v>1820.33</v>
+      </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J73">
+        <v>1771.34</v>
+      </c>
+      <c r="K73">
+        <v>60.2</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2154,13 +2316,25 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C74">
+        <v>2487.29</v>
       </c>
       <c r="D74">
         <v>1389.9</v>
       </c>
+      <c r="E74">
+        <v>1097.38</v>
+      </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J74">
+        <v>1753.13</v>
+      </c>
+      <c r="K74">
+        <v>59.77</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2168,13 +2342,25 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C75">
+        <v>1906.71</v>
       </c>
       <c r="D75">
         <v>1404.44</v>
       </c>
+      <c r="E75">
+        <v>502.28</v>
+      </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J75">
+        <v>1720.21</v>
+      </c>
+      <c r="K75">
+        <v>58.89</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2182,13 +2368,13 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D76">
         <v>1381.08</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2196,13 +2382,13 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D77">
         <v>1911.53</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2210,19 +2396,19 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C78">
-        <v>3085.57</v>
+        <v>3059</v>
       </c>
       <c r="D78">
         <v>1051.11</v>
       </c>
       <c r="E78">
-        <v>2034.46</v>
+        <v>2007.89</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G78">
         <v>0.84</v>
@@ -2234,10 +2420,10 @@
         <v>2205</v>
       </c>
       <c r="J78">
-        <v>2002.08</v>
+        <v>1727.59</v>
       </c>
       <c r="K78">
-        <v>64.63</v>
+        <v>59.06</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2245,25 +2431,25 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C79">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D79">
         <v>1358.87</v>
       </c>
       <c r="E79">
-        <v>1791.7</v>
+        <v>1771.42</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J79">
-        <v>1993.66</v>
+        <v>1728.68</v>
       </c>
       <c r="K79">
-        <v>64.31999999999999</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2271,13 +2457,25 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C80">
+        <v>2986.71</v>
       </c>
       <c r="D80">
         <v>1366.88</v>
       </c>
+      <c r="E80">
+        <v>1619.83</v>
+      </c>
       <c r="F80" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J80">
+        <v>1726.03</v>
+      </c>
+      <c r="K80">
+        <v>58.88</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2285,13 +2483,25 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C81">
+        <v>2487.29</v>
       </c>
       <c r="D81">
         <v>861.87</v>
       </c>
+      <c r="E81">
+        <v>1625.42</v>
+      </c>
       <c r="F81" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J81">
+        <v>1723.63</v>
+      </c>
+      <c r="K81">
+        <v>59.04</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2299,13 +2509,25 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <v>1906.71</v>
       </c>
       <c r="D82">
         <v>1001.39</v>
       </c>
+      <c r="E82">
+        <v>905.33</v>
+      </c>
       <c r="F82" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J82">
+        <v>1704.6</v>
+      </c>
+      <c r="K82">
+        <v>58.77</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2313,13 +2535,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D83">
         <v>1337.64</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2327,13 +2549,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D84">
         <v>1480.23</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2341,19 +2563,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C85">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D85">
         <v>760.13</v>
       </c>
       <c r="E85">
-        <v>2390.45</v>
+        <v>2370.16</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G85">
         <v>1.01</v>
@@ -2365,10 +2587,10 @@
         <v>2283.68</v>
       </c>
       <c r="J85">
-        <v>2008.92</v>
+        <v>1719.73</v>
       </c>
       <c r="K85">
-        <v>64.77</v>
+        <v>59.15</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2376,13 +2598,25 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C86">
+        <v>2986.71</v>
       </c>
       <c r="D86">
         <v>795.34</v>
       </c>
+      <c r="E86">
+        <v>2191.37</v>
+      </c>
       <c r="F86" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J86">
+        <v>1730.21</v>
+      </c>
+      <c r="K86">
+        <v>59.47</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2390,13 +2624,25 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C87">
+        <v>2487.29</v>
       </c>
       <c r="D87">
         <v>810.16</v>
       </c>
+      <c r="E87">
+        <v>1677.12</v>
+      </c>
       <c r="F87" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J87">
+        <v>1729.05</v>
+      </c>
+      <c r="K87">
+        <v>59.64</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2404,13 +2650,25 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C88">
+        <v>1906.71</v>
       </c>
       <c r="D88">
         <v>869.78</v>
       </c>
+      <c r="E88">
+        <v>1036.93</v>
+      </c>
       <c r="F88" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J88">
+        <v>1714.33</v>
+      </c>
+      <c r="K88">
+        <v>59.53</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2418,13 +2676,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D89">
         <v>1001.3</v>
       </c>
       <c r="F89" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2432,13 +2690,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D90">
         <v>1084.79</v>
       </c>
       <c r="F90" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2446,13 +2704,13 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D91">
         <v>1223.21</v>
       </c>
       <c r="F91" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2460,19 +2718,19 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C92">
-        <v>3150.57</v>
+        <v>3130.29</v>
       </c>
       <c r="D92">
         <v>1328.59</v>
       </c>
       <c r="E92">
-        <v>1821.98</v>
+        <v>1801.69</v>
       </c>
       <c r="F92" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H92">
         <v>67.39</v>
@@ -2481,10 +2739,10 @@
         <v>2079.28</v>
       </c>
       <c r="J92">
-        <v>2002</v>
+        <v>1716.15</v>
       </c>
       <c r="K92">
-        <v>64.51000000000001</v>
+        <v>59.49</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2492,13 +2750,25 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C93">
+        <v>2986.71</v>
       </c>
       <c r="D93">
         <v>1346.25</v>
       </c>
+      <c r="E93">
+        <v>1640.46</v>
+      </c>
       <c r="F93" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J93">
+        <v>1714.6</v>
+      </c>
+      <c r="K93">
+        <v>59.4</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2506,13 +2776,25 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C94">
+        <v>2487.29</v>
       </c>
       <c r="D94">
         <v>1328.95</v>
       </c>
+      <c r="E94">
+        <v>1158.33</v>
+      </c>
       <c r="F94" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J94">
+        <v>1703.48</v>
+      </c>
+      <c r="K94">
+        <v>59.14</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2520,13 +2802,25 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C95">
+        <v>1906.71</v>
       </c>
       <c r="D95">
         <v>1366.69</v>
       </c>
+      <c r="E95">
+        <v>540.02</v>
+      </c>
       <c r="F95" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J95">
+        <v>1680.66</v>
+      </c>
+      <c r="K95">
+        <v>58.54</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2534,55 +2828,61 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D96">
         <v>1096.52</v>
       </c>
       <c r="F96" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" t="s">
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D97">
         <v>1216.25</v>
       </c>
       <c r="F97" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" t="s">
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D98">
         <v>1474.7</v>
       </c>
       <c r="F98" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" t="s">
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C99">
+        <v>2986.71</v>
       </c>
       <c r="D99">
         <v>923.51</v>
       </c>
+      <c r="E99">
+        <v>2063.2</v>
+      </c>
       <c r="F99" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G99">
         <v>1.02</v>
@@ -2593,89 +2893,390 @@
       <c r="I99">
         <v>2369.26</v>
       </c>
-    </row>
-    <row r="100" spans="1:9">
+      <c r="J99">
+        <v>1688.02</v>
+      </c>
+      <c r="K99">
+        <v>58.74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" t="s">
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="C100">
+        <v>2487.29</v>
       </c>
       <c r="D100">
         <v>1020.78</v>
       </c>
+      <c r="E100">
+        <v>1466.5</v>
+      </c>
       <c r="F100" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J100">
+        <v>1683.84</v>
+      </c>
+      <c r="K100">
+        <v>58.74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" t="s">
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C101">
+        <v>1906.71</v>
       </c>
       <c r="D101">
         <v>1034.15</v>
       </c>
+      <c r="E101">
+        <v>872.5700000000001</v>
+      </c>
       <c r="F101" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J101">
+        <v>1668.82</v>
+      </c>
+      <c r="K101">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" t="s">
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D102">
         <v>1165.39</v>
       </c>
       <c r="F102" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" t="s">
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D103">
         <v>1382.14</v>
       </c>
       <c r="F103" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" t="s">
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D104">
         <v>1612.47</v>
       </c>
       <c r="F104" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" t="s">
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D105">
         <v>1944.6</v>
       </c>
       <c r="F105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" t="s">
+        <v>59</v>
+      </c>
+      <c r="C106">
+        <v>2986.71</v>
+      </c>
+      <c r="D106">
+        <v>1522.12</v>
+      </c>
+      <c r="E106">
+        <v>1464.6</v>
+      </c>
+      <c r="F106" t="s">
+        <v>67</v>
+      </c>
+      <c r="G106">
+        <v>0.85</v>
+      </c>
+      <c r="H106">
+        <v>62.91</v>
+      </c>
+      <c r="I106">
+        <v>1981.94</v>
+      </c>
+      <c r="J106">
+        <v>1665.11</v>
+      </c>
+      <c r="K106">
+        <v>58.33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" t="s">
+        <v>17</v>
+      </c>
+      <c r="B107" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107">
+        <v>2487.29</v>
+      </c>
+      <c r="D107">
+        <v>1414.4</v>
+      </c>
+      <c r="E107">
+        <v>1072.89</v>
+      </c>
+      <c r="F107" t="s">
+        <v>67</v>
+      </c>
+      <c r="J107">
+        <v>1654.53</v>
+      </c>
+      <c r="K107">
+        <v>58.06</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" t="s">
+        <v>17</v>
+      </c>
+      <c r="B108" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108">
+        <v>1906.71</v>
+      </c>
+      <c r="D108">
+        <v>1112.75</v>
+      </c>
+      <c r="E108">
+        <v>793.97</v>
+      </c>
+      <c r="F108" t="s">
+        <v>67</v>
+      </c>
+      <c r="J108">
+        <v>1639.43</v>
+      </c>
+      <c r="K108">
+        <v>57.77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B109" t="s">
+        <v>62</v>
+      </c>
+      <c r="D109">
+        <v>1206.17</v>
+      </c>
+      <c r="F109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" t="s">
+        <v>17</v>
+      </c>
+      <c r="B110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110">
+        <v>1267.68</v>
+      </c>
+      <c r="F110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B111" t="s">
+        <v>64</v>
+      </c>
+      <c r="D111">
+        <v>1378.23</v>
+      </c>
+      <c r="F111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
         <v>65</v>
+      </c>
+      <c r="D112">
+        <v>1900.79</v>
+      </c>
+      <c r="F112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C113">
+        <v>2487.29</v>
+      </c>
+      <c r="D113">
+        <v>946.48</v>
+      </c>
+      <c r="E113">
+        <v>1540.8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>67</v>
+      </c>
+      <c r="H113">
+        <v>67.63</v>
+      </c>
+      <c r="I113">
+        <v>2053.06</v>
+      </c>
+      <c r="J113">
+        <v>1637.73</v>
+      </c>
+      <c r="K113">
+        <v>57.84</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>18</v>
+      </c>
+      <c r="B114" t="s">
+        <v>61</v>
+      </c>
+      <c r="C114">
+        <v>1906.71</v>
+      </c>
+      <c r="D114">
+        <v>992.17</v>
+      </c>
+      <c r="E114">
+        <v>914.54</v>
+      </c>
+      <c r="F114" t="s">
+        <v>67</v>
+      </c>
+      <c r="J114">
+        <v>1625.47</v>
+      </c>
+      <c r="K114">
+        <v>57.67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>18</v>
+      </c>
+      <c r="B115" t="s">
+        <v>62</v>
+      </c>
+      <c r="D115">
+        <v>1134.34</v>
+      </c>
+      <c r="F115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116">
+        <v>1245.23</v>
+      </c>
+      <c r="F116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>64</v>
+      </c>
+      <c r="D117">
+        <v>1350.88</v>
+      </c>
+      <c r="F117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>18</v>
+      </c>
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118">
+        <v>1627.89</v>
+      </c>
+      <c r="F118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+      <c r="D119">
+        <v>1714.65</v>
+      </c>
+      <c r="F119" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
+++ b/future_prediction/usa/Weekly-Deaths-Prediction r = 7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2021-02-06</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>26 Apr -- 02 May 2020</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>1933.57</v>
@@ -633,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.92</v>
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1753.71</v>
@@ -662,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1426.86</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1220.57</v>
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>946.14</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>873.71</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>744.29</v>
@@ -762,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>602.14</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10">
         <v>565.86</v>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11">
         <v>524.14</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12">
         <v>748.86</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>786.29</v>
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>922</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>1140.43</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1038.43</v>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>1007.43</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
         <v>973.4299999999999</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19">
         <v>894.5700000000001</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20">
         <v>846.4299999999999</v>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21">
         <v>733.14</v>
@@ -1022,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22">
         <v>797.86</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>766.4299999999999</v>
@@ -1062,7 +1071,7 @@
         <v>289.67</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24">
         <v>702.14</v>
@@ -1082,7 +1091,7 @@
         <v>144.84</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <v>714.29</v>
@@ -1102,7 +1111,7 @@
         <v>276.7</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>717.4299999999999</v>
@@ -1122,7 +1131,7 @@
         <v>197.02</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27">
         <v>821.5700000000001</v>
@@ -1142,7 +1151,7 @@
         <v>21.68</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28">
         <v>819</v>
@@ -1162,7 +1171,7 @@
         <v>74.36</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C29">
         <v>994.86</v>
@@ -1182,7 +1191,7 @@
         <v>158.24</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C30">
         <v>1087.29</v>
@@ -1202,7 +1211,7 @@
         <v>309.37</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>1466.29</v>
@@ -1222,7 +1231,7 @@
         <v>703.79</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>1447.14</v>
@@ -1242,7 +1251,7 @@
         <v>674.61</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C33">
         <v>2150.29</v>
@@ -1262,7 +1271,7 @@
         <v>1368.82</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34">
         <v>2383.14</v>
@@ -1282,7 +1291,7 @@
         <v>1522.83</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35">
         <v>2607.86</v>
@@ -1302,7 +1311,7 @@
         <v>1663.16</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36">
         <v>2241.86</v>
@@ -1322,7 +1331,7 @@
         <v>1280.26</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J36">
         <v>1280.26</v>
@@ -1336,7 +1345,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37">
         <v>2683.43</v>
@@ -1348,7 +1357,7 @@
         <v>1701.34</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J37">
         <v>1490.8</v>
@@ -1362,7 +1371,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38">
         <v>3148.14</v>
@@ -1374,7 +1383,7 @@
         <v>2061.81</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J38">
         <v>1681.14</v>
@@ -1388,25 +1397,25 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C39">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D39">
         <v>1056.05</v>
       </c>
       <c r="E39">
-        <v>2278.23</v>
+        <v>2282.95</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J39">
-        <v>1830.41</v>
+        <v>1831.59</v>
       </c>
       <c r="K39">
-        <v>63.58</v>
+        <v>63.59</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1414,25 +1423,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C40">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D40">
         <v>1099.45</v>
       </c>
       <c r="E40">
-        <v>1959.55</v>
+        <v>1962.4</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J40">
-        <v>1856.24</v>
+        <v>1857.75</v>
       </c>
       <c r="K40">
-        <v>63.68</v>
+        <v>63.69</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1440,25 +1449,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C41">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D41">
         <v>1150.7</v>
       </c>
       <c r="E41">
-        <v>1979.59</v>
+        <v>1983.44</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J41">
-        <v>1876.79</v>
+        <v>1878.7</v>
       </c>
       <c r="K41">
-        <v>63.6</v>
+        <v>63.63</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1466,25 +1475,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C42">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D42">
         <v>1312.14</v>
       </c>
       <c r="E42">
-        <v>1674.58</v>
+        <v>1678.44</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J42">
-        <v>1847.91</v>
+        <v>1850.09</v>
       </c>
       <c r="K42">
-        <v>62.53</v>
+        <v>62.55</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1492,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C43">
         <v>2683.43</v>
@@ -1504,7 +1513,7 @@
         <v>1827.62</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G43">
         <v>0.97</v>
@@ -1516,10 +1525,10 @@
         <v>1424.39</v>
       </c>
       <c r="J43">
-        <v>1845.37</v>
+        <v>1847.28</v>
       </c>
       <c r="K43">
-        <v>63.23</v>
+        <v>63.25</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1527,7 +1536,7 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44">
         <v>3148.14</v>
@@ -1539,13 +1548,13 @@
         <v>2186.05</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44">
-        <v>1883.22</v>
+        <v>1884.92</v>
       </c>
       <c r="K44">
-        <v>63.92</v>
+        <v>63.94</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1553,25 +1562,25 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C45">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D45">
         <v>1048.4</v>
       </c>
       <c r="E45">
-        <v>2285.89</v>
+        <v>2290.6</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J45">
-        <v>1923.49</v>
+        <v>1925.49</v>
       </c>
       <c r="K45">
-        <v>64.38</v>
+        <v>64.40000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1579,25 +1588,25 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C46">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D46">
         <v>1203.18</v>
       </c>
       <c r="E46">
-        <v>1855.82</v>
+        <v>1858.68</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J46">
-        <v>1917.34</v>
+        <v>1919.42</v>
       </c>
       <c r="K46">
-        <v>64.04000000000001</v>
+        <v>64.06999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1605,25 +1614,25 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D47">
         <v>1388.31</v>
       </c>
       <c r="E47">
-        <v>1741.97</v>
+        <v>1745.83</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J47">
-        <v>1902.73</v>
+        <v>1904.95</v>
       </c>
       <c r="K47">
-        <v>63.34</v>
+        <v>63.37</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1631,25 +1640,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C48">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D48">
         <v>1332.97</v>
       </c>
       <c r="E48">
-        <v>1653.74</v>
+        <v>1657.6</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J48">
-        <v>1883.57</v>
+        <v>1885.92</v>
       </c>
       <c r="K48">
-        <v>62.73</v>
+        <v>62.76</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1657,25 +1666,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C49">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D49">
         <v>1275.45</v>
       </c>
       <c r="E49">
-        <v>1211.84</v>
+        <v>1217.84</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J49">
-        <v>1835.59</v>
+        <v>1838.2</v>
       </c>
       <c r="K49">
-        <v>61.73</v>
+        <v>61.76</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1683,7 +1692,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>3148.14</v>
@@ -1695,7 +1704,7 @@
         <v>1988.14</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G50">
         <v>0.9399999999999999</v>
@@ -1707,10 +1716,10 @@
         <v>1787.14</v>
       </c>
       <c r="J50">
-        <v>1845.76</v>
+        <v>1848.2</v>
       </c>
       <c r="K50">
-        <v>61.82</v>
+        <v>61.86</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1718,25 +1727,25 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D51">
         <v>821.48</v>
       </c>
       <c r="E51">
-        <v>2512.8</v>
+        <v>2517.52</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J51">
-        <v>1887.45</v>
+        <v>1890.03</v>
       </c>
       <c r="K51">
-        <v>62.67</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1744,25 +1753,25 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D52">
         <v>1244.2</v>
       </c>
       <c r="E52">
-        <v>1814.8</v>
+        <v>1817.66</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J52">
-        <v>1883.18</v>
+        <v>1885.78</v>
       </c>
       <c r="K52">
-        <v>62.47</v>
+        <v>62.51</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1770,25 +1779,25 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D53">
         <v>1381.27</v>
       </c>
       <c r="E53">
-        <v>1749.02</v>
+        <v>1752.87</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J53">
-        <v>1875.73</v>
+        <v>1878.39</v>
       </c>
       <c r="K53">
-        <v>62.11</v>
+        <v>62.14</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1796,25 +1805,25 @@
         <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D54">
         <v>1616.94</v>
       </c>
       <c r="E54">
-        <v>1369.78</v>
+        <v>1373.63</v>
       </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J54">
-        <v>1849.1</v>
+        <v>1851.83</v>
       </c>
       <c r="K54">
-        <v>61.25</v>
+        <v>61.29</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1822,25 +1831,25 @@
         <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D55">
         <v>853.03</v>
       </c>
       <c r="E55">
-        <v>1634.25</v>
+        <v>1640.25</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J55">
-        <v>1838.35</v>
+        <v>1841.25</v>
       </c>
       <c r="K55">
-        <v>61.47</v>
+        <v>61.51</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1848,25 +1857,25 @@
         <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C56">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D56">
         <v>988.45</v>
       </c>
       <c r="E56">
-        <v>918.26</v>
+        <v>861.98</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>1794.54</v>
+        <v>1794.62</v>
       </c>
       <c r="K56">
-        <v>60.84</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1874,19 +1883,19 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D57">
         <v>982.41</v>
       </c>
       <c r="E57">
-        <v>2351.87</v>
+        <v>2356.59</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H57">
         <v>74.83</v>
@@ -1895,10 +1904,10 @@
         <v>2375.29</v>
       </c>
       <c r="J57">
-        <v>1819.87</v>
+        <v>1820.16</v>
       </c>
       <c r="K57">
-        <v>61.28</v>
+        <v>61.25</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1906,25 +1915,25 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D58">
         <v>1071.37</v>
       </c>
       <c r="E58">
-        <v>1987.63</v>
+        <v>1990.49</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J58">
-        <v>1827.17</v>
+        <v>1827.57</v>
       </c>
       <c r="K58">
-        <v>61.44</v>
+        <v>61.41</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1932,25 +1941,25 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D59">
         <v>1058.26</v>
       </c>
       <c r="E59">
-        <v>2072.02</v>
+        <v>2075.88</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J59">
-        <v>1837.37</v>
+        <v>1837.91</v>
       </c>
       <c r="K59">
-        <v>61.64</v>
+        <v>61.61</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1958,25 +1967,25 @@
         <v>14</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D60">
         <v>1202.37</v>
       </c>
       <c r="E60">
-        <v>1784.34</v>
+        <v>1788.2</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J60">
-        <v>1835.25</v>
+        <v>1835.92</v>
       </c>
       <c r="K60">
-        <v>61.56</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1984,25 +1993,25 @@
         <v>14</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D61">
         <v>1278.63</v>
       </c>
       <c r="E61">
-        <v>1208.66</v>
+        <v>1214.66</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J61">
-        <v>1811.15</v>
+        <v>1812.03</v>
       </c>
       <c r="K61">
-        <v>61.07</v>
+        <v>61.05</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2010,25 +2019,25 @@
         <v>14</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D62">
         <v>1372.63</v>
       </c>
       <c r="E62">
-        <v>534.09</v>
+        <v>477.8</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J62">
-        <v>1763.85</v>
+        <v>1762.61</v>
       </c>
       <c r="K62">
-        <v>59.84</v>
+        <v>59.74</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2036,13 +2045,13 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>1444.39</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2050,19 +2059,19 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64">
-        <v>3334.29</v>
+        <v>3339</v>
       </c>
       <c r="D64">
         <v>1048</v>
       </c>
       <c r="E64">
-        <v>2286.28</v>
+        <v>2291</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G64">
         <v>0.83</v>
@@ -2074,10 +2083,10 @@
         <v>2035.15</v>
       </c>
       <c r="J64">
-        <v>1782.51</v>
+        <v>1781.48</v>
       </c>
       <c r="K64">
-        <v>60.15</v>
+        <v>60.06</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2085,25 +2094,25 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D65">
         <v>1071.76</v>
       </c>
       <c r="E65">
-        <v>1987.24</v>
+        <v>1990.1</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J65">
-        <v>1789.57</v>
+        <v>1788.68</v>
       </c>
       <c r="K65">
-        <v>60.32</v>
+        <v>60.23</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2111,25 +2120,25 @@
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D66">
         <v>1272.38</v>
       </c>
       <c r="E66">
-        <v>1857.9</v>
+        <v>1861.76</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J66">
-        <v>1791.85</v>
+        <v>1791.11</v>
       </c>
       <c r="K66">
-        <v>60.29</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2137,25 +2146,25 @@
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D67">
         <v>1370.74</v>
       </c>
       <c r="E67">
-        <v>1615.98</v>
+        <v>1619.83</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J67">
-        <v>1786.17</v>
+        <v>1785.59</v>
       </c>
       <c r="K67">
-        <v>60.09</v>
+        <v>60.01</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2163,25 +2172,25 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C68">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D68">
         <v>859.61</v>
       </c>
       <c r="E68">
-        <v>1627.68</v>
+        <v>1633.68</v>
       </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J68">
-        <v>1781.22</v>
+        <v>1780.84</v>
       </c>
       <c r="K68">
-        <v>60.25</v>
+        <v>60.18</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2189,25 +2198,25 @@
         <v>14</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C69">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D69">
         <v>1000.1</v>
       </c>
       <c r="E69">
-        <v>906.61</v>
+        <v>850.3200000000001</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J69">
-        <v>1754.72</v>
+        <v>1752.64</v>
       </c>
       <c r="K69">
-        <v>59.87</v>
+        <v>59.75</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2215,13 +2224,13 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>1335.68</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2229,19 +2238,19 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C71">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D71">
         <v>1035.09</v>
       </c>
       <c r="E71">
-        <v>2023.91</v>
+        <v>2026.77</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G71">
         <v>1.04</v>
@@ -2253,10 +2262,10 @@
         <v>2723.52</v>
       </c>
       <c r="J71">
-        <v>1762.63</v>
+        <v>1760.71</v>
       </c>
       <c r="K71">
-        <v>60.05</v>
+        <v>59.94</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2264,25 +2273,25 @@
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C72">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D72">
         <v>1111.9</v>
       </c>
       <c r="E72">
-        <v>2018.38</v>
+        <v>2022.24</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J72">
-        <v>1769.94</v>
+        <v>1768.18</v>
       </c>
       <c r="K72">
-        <v>60.18</v>
+        <v>60.07</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2290,25 +2299,25 @@
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C73">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D73">
         <v>1166.38</v>
       </c>
       <c r="E73">
-        <v>1820.33</v>
+        <v>1824.19</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J73">
-        <v>1771.34</v>
+        <v>1769.73</v>
       </c>
       <c r="K73">
-        <v>60.2</v>
+        <v>60.09</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2316,25 +2325,25 @@
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C74">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D74">
         <v>1389.9</v>
       </c>
       <c r="E74">
-        <v>1097.38</v>
+        <v>1103.38</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J74">
-        <v>1753.13</v>
+        <v>1751.72</v>
       </c>
       <c r="K74">
-        <v>59.77</v>
+        <v>59.67</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2342,25 +2351,25 @@
         <v>15</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C75">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D75">
         <v>1404.44</v>
       </c>
       <c r="E75">
-        <v>502.28</v>
+        <v>445.99</v>
       </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J75">
-        <v>1720.21</v>
+        <v>1717.36</v>
       </c>
       <c r="K75">
-        <v>58.89</v>
+        <v>58.73</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2368,13 +2377,13 @@
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D76">
         <v>1381.08</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2382,13 +2391,13 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <v>1911.53</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2396,19 +2405,19 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C78">
-        <v>3059</v>
+        <v>3061.86</v>
       </c>
       <c r="D78">
         <v>1051.11</v>
       </c>
       <c r="E78">
-        <v>2007.89</v>
+        <v>2010.75</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G78">
         <v>0.84</v>
@@ -2420,10 +2429,10 @@
         <v>2205</v>
       </c>
       <c r="J78">
-        <v>1727.59</v>
+        <v>1724.89</v>
       </c>
       <c r="K78">
-        <v>59.06</v>
+        <v>58.91</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2431,25 +2440,25 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C79">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D79">
         <v>1358.87</v>
       </c>
       <c r="E79">
-        <v>1771.42</v>
+        <v>1775.27</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J79">
-        <v>1728.68</v>
+        <v>1726.15</v>
       </c>
       <c r="K79">
-        <v>59</v>
+        <v>58.85</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2457,25 +2466,25 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C80">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D80">
         <v>1366.88</v>
       </c>
       <c r="E80">
-        <v>1619.83</v>
+        <v>1623.69</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J80">
-        <v>1726.03</v>
+        <v>1723.65</v>
       </c>
       <c r="K80">
-        <v>58.88</v>
+        <v>58.74</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2483,25 +2492,25 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C81">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D81">
         <v>861.87</v>
       </c>
       <c r="E81">
-        <v>1625.42</v>
+        <v>1631.42</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J81">
-        <v>1723.63</v>
+        <v>1721.45</v>
       </c>
       <c r="K81">
-        <v>59.04</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2509,25 +2518,25 @@
         <v>15</v>
       </c>
       <c r="B82" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C82">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D82">
         <v>1001.39</v>
       </c>
       <c r="E82">
-        <v>905.33</v>
+        <v>849.04</v>
       </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J82">
-        <v>1704.6</v>
+        <v>1701.16</v>
       </c>
       <c r="K82">
-        <v>58.77</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2535,13 +2544,13 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D83">
         <v>1337.64</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2549,13 +2558,13 @@
         <v>15</v>
       </c>
       <c r="B84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D84">
         <v>1480.23</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2563,19 +2572,19 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C85">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D85">
         <v>760.13</v>
       </c>
       <c r="E85">
-        <v>2370.16</v>
+        <v>2374.02</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G85">
         <v>1.01</v>
@@ -2587,10 +2596,10 @@
         <v>2283.68</v>
       </c>
       <c r="J85">
-        <v>1719.73</v>
+        <v>1716.45</v>
       </c>
       <c r="K85">
-        <v>59.15</v>
+        <v>58.99</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2598,25 +2607,25 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C86">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D86">
         <v>795.34</v>
       </c>
       <c r="E86">
-        <v>2191.37</v>
+        <v>2195.23</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J86">
-        <v>1730.21</v>
+        <v>1727.09</v>
       </c>
       <c r="K86">
-        <v>59.47</v>
+        <v>59.31</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2624,25 +2633,25 @@
         <v>16</v>
       </c>
       <c r="B87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C87">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D87">
         <v>810.16</v>
       </c>
       <c r="E87">
-        <v>1677.12</v>
+        <v>1683.12</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J87">
-        <v>1729.05</v>
+        <v>1726.14</v>
       </c>
       <c r="K87">
-        <v>59.64</v>
+        <v>59.48</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2650,25 +2659,25 @@
         <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C88">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D88">
         <v>869.78</v>
       </c>
       <c r="E88">
-        <v>1036.93</v>
+        <v>980.64</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J88">
-        <v>1714.33</v>
+        <v>1710.28</v>
       </c>
       <c r="K88">
-        <v>59.53</v>
+        <v>59.35</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2676,13 +2685,13 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D89">
         <v>1001.3</v>
       </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2690,13 +2699,13 @@
         <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D90">
         <v>1084.79</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2704,13 +2713,13 @@
         <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D91">
         <v>1223.21</v>
       </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2718,19 +2727,19 @@
         <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C92">
-        <v>3130.29</v>
+        <v>3134.14</v>
       </c>
       <c r="D92">
         <v>1328.59</v>
       </c>
       <c r="E92">
-        <v>1801.69</v>
+        <v>1805.55</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H92">
         <v>67.39</v>
@@ -2739,10 +2748,10 @@
         <v>2079.28</v>
       </c>
       <c r="J92">
-        <v>1716.15</v>
+        <v>1712.26</v>
       </c>
       <c r="K92">
-        <v>59.49</v>
+        <v>59.31</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2750,25 +2759,25 @@
         <v>16</v>
       </c>
       <c r="B93" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C93">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D93">
         <v>1346.25</v>
       </c>
       <c r="E93">
-        <v>1640.46</v>
+        <v>1644.32</v>
       </c>
       <c r="F93" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J93">
-        <v>1714.6</v>
+        <v>1710.87</v>
       </c>
       <c r="K93">
-        <v>59.4</v>
+        <v>59.22</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2776,25 +2785,25 @@
         <v>16</v>
       </c>
       <c r="B94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C94">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D94">
         <v>1328.95</v>
       </c>
       <c r="E94">
-        <v>1158.33</v>
+        <v>1164.33</v>
       </c>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J94">
-        <v>1703.48</v>
+        <v>1699.94</v>
       </c>
       <c r="K94">
-        <v>59.14</v>
+        <v>58.97</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2802,25 +2811,25 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C95">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D95">
         <v>1366.69</v>
       </c>
       <c r="E95">
-        <v>540.02</v>
+        <v>483.73</v>
       </c>
       <c r="F95" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J95">
-        <v>1680.66</v>
+        <v>1676.1</v>
       </c>
       <c r="K95">
-        <v>58.54</v>
+        <v>58.33</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -2828,13 +2837,13 @@
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D96">
         <v>1096.52</v>
       </c>
       <c r="F96" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -2842,13 +2851,13 @@
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D97">
         <v>1216.25</v>
       </c>
       <c r="F97" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -2856,13 +2865,13 @@
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D98">
         <v>1474.7</v>
       </c>
       <c r="F98" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -2870,19 +2879,19 @@
         <v>17</v>
       </c>
       <c r="B99" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C99">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D99">
         <v>923.51</v>
       </c>
       <c r="E99">
-        <v>2063.2</v>
+        <v>2067.06</v>
       </c>
       <c r="F99" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G99">
         <v>1.02</v>
@@ -2894,10 +2903,10 @@
         <v>2369.26</v>
       </c>
       <c r="J99">
-        <v>1688.02</v>
+        <v>1683.61</v>
       </c>
       <c r="K99">
-        <v>58.74</v>
+        <v>58.54</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -2905,25 +2914,25 @@
         <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C100">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D100">
         <v>1020.78</v>
       </c>
       <c r="E100">
-        <v>1466.5</v>
+        <v>1472.5</v>
       </c>
       <c r="F100" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J100">
-        <v>1683.84</v>
+        <v>1679.63</v>
       </c>
       <c r="K100">
-        <v>58.74</v>
+        <v>58.55</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -2931,25 +2940,25 @@
         <v>17</v>
       </c>
       <c r="B101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C101">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D101">
         <v>1034.15</v>
       </c>
       <c r="E101">
-        <v>872.5700000000001</v>
+        <v>816.28</v>
       </c>
       <c r="F101" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J101">
-        <v>1668.82</v>
+        <v>1663.64</v>
       </c>
       <c r="K101">
-        <v>58.5</v>
+        <v>58.28</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -2957,13 +2966,13 @@
         <v>17</v>
       </c>
       <c r="B102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D102">
         <v>1165.39</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -2971,13 +2980,13 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D103">
         <v>1382.14</v>
       </c>
       <c r="F103" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -2985,13 +2994,13 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D104">
         <v>1612.47</v>
       </c>
       <c r="F104" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -2999,13 +3008,13 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D105">
         <v>1944.6</v>
       </c>
       <c r="F105" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -3013,19 +3022,19 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C106">
-        <v>2986.71</v>
+        <v>2990.57</v>
       </c>
       <c r="D106">
         <v>1522.12</v>
       </c>
       <c r="E106">
-        <v>1464.6</v>
+        <v>1468.46</v>
       </c>
       <c r="F106" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G106">
         <v>0.85</v>
@@ -3037,10 +3046,10 @@
         <v>1981.94</v>
       </c>
       <c r="J106">
-        <v>1665.11</v>
+        <v>1660.09</v>
       </c>
       <c r="K106">
-        <v>58.33</v>
+        <v>58.11</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -3048,25 +3057,25 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C107">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D107">
         <v>1414.4</v>
       </c>
       <c r="E107">
-        <v>1072.89</v>
+        <v>1078.89</v>
       </c>
       <c r="F107" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J107">
-        <v>1654.53</v>
+        <v>1649.72</v>
       </c>
       <c r="K107">
-        <v>58.06</v>
+        <v>57.85</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -3074,25 +3083,25 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C108">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D108">
         <v>1112.75</v>
       </c>
       <c r="E108">
-        <v>793.97</v>
+        <v>737.6799999999999</v>
       </c>
       <c r="F108" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J108">
-        <v>1639.43</v>
+        <v>1633.72</v>
       </c>
       <c r="K108">
-        <v>57.77</v>
+        <v>57.53</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -3100,13 +3109,13 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D109">
         <v>1206.17</v>
       </c>
       <c r="F109" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -3114,13 +3123,13 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D110">
         <v>1267.68</v>
       </c>
       <c r="F110" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -3128,13 +3137,13 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D111">
         <v>1378.23</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -3142,13 +3151,13 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D112">
         <v>1900.79</v>
       </c>
       <c r="F112" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -3156,19 +3165,19 @@
         <v>18</v>
       </c>
       <c r="B113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C113">
-        <v>2487.29</v>
+        <v>2493.29</v>
       </c>
       <c r="D113">
         <v>946.48</v>
       </c>
       <c r="E113">
-        <v>1540.8</v>
+        <v>1546.8</v>
       </c>
       <c r="F113" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H113">
         <v>67.63</v>
@@ -3177,10 +3186,10 @@
         <v>2053.06</v>
       </c>
       <c r="J113">
-        <v>1637.73</v>
+        <v>1632.22</v>
       </c>
       <c r="K113">
-        <v>57.84</v>
+        <v>57.61</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -3188,25 +3197,25 @@
         <v>18</v>
       </c>
       <c r="B114" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C114">
-        <v>1906.71</v>
+        <v>1850.43</v>
       </c>
       <c r="D114">
         <v>992.17</v>
       </c>
       <c r="E114">
-        <v>914.54</v>
+        <v>858.26</v>
       </c>
       <c r="F114" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J114">
-        <v>1625.47</v>
+        <v>1619.1</v>
       </c>
       <c r="K114">
-        <v>57.67</v>
+        <v>57.42</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -3214,13 +3223,13 @@
         <v>18</v>
       </c>
       <c r="B115" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D115">
         <v>1134.34</v>
       </c>
       <c r="F115" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -3228,13 +3237,13 @@
         <v>18</v>
       </c>
       <c r="B116" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D116">
         <v>1245.23</v>
       </c>
       <c r="F116" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -3242,13 +3251,13 @@
         <v>18</v>
       </c>
       <c r="B117" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D117">
         <v>1350.88</v>
       </c>
       <c r="F117" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -3256,13 +3265,13 @@
         <v>18</v>
       </c>
       <c r="B118" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D118">
         <v>1627.89</v>
       </c>
       <c r="F118" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -3270,13 +3279,120 @@
         <v>18</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D119">
         <v>1714.65</v>
       </c>
       <c r="F119" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120">
+        <v>2224.06</v>
+      </c>
+      <c r="F120" t="s">
+        <v>70</v>
+      </c>
+      <c r="G120">
+        <v>0.44</v>
+      </c>
+      <c r="H120">
+        <v>6.93</v>
+      </c>
+      <c r="I120">
+        <v>128.24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>64</v>
+      </c>
+      <c r="D121">
+        <v>2777.62</v>
+      </c>
+      <c r="F121" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122">
+        <v>2642.7</v>
+      </c>
+      <c r="F122" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>66</v>
+      </c>
+      <c r="D123">
+        <v>2562</v>
+      </c>
+      <c r="F123" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
         <v>67</v>
+      </c>
+      <c r="D124">
+        <v>2345.5</v>
+      </c>
+      <c r="F124" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125">
+        <v>2559.43</v>
+      </c>
+      <c r="F125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>69</v>
+      </c>
+      <c r="D126">
+        <v>1664.17</v>
+      </c>
+      <c r="F126" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
